--- a/outputs/per_model_excel/ALL_MODELS_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/ALL_MODELS_finetuning_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,30 +458,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>微调前PPL</t>
+          <t>微调前PPL_WikiText2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>微调后PPL</t>
+          <t>微调后PPL_WikiText2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PPL变化(%)</t>
+          <t>PPL变化(%)_WikiText2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>微调前PPL_PTB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>微调后PPL_PTB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PPL变化(%)_PTB</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>微调前平均ACC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>微调后平均ACC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ACC变化(%)</t>
         </is>
@@ -511,12 +526,21 @@
         <v>-30.9</v>
       </c>
       <c r="G2" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-29.76</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.5245</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>0.6104000000000001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>16.37</v>
       </c>
     </row>
@@ -544,12 +568,21 @@
         <v>-0.01</v>
       </c>
       <c r="G3" t="n">
+        <v>68.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.5768</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.5774</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -577,12 +610,21 @@
         <v>-99.67</v>
       </c>
       <c r="G4" t="n">
+        <v>5422.38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-99.64</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.4022</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>0.6409</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>59.34</v>
       </c>
     </row>
@@ -610,12 +652,21 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.7005</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>0.6997</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -643,12 +694,21 @@
         <v>-19.46</v>
       </c>
       <c r="G6" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-14.48</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.5946</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>0.6492</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>9.19</v>
       </c>
     </row>
@@ -676,12 +736,21 @@
         <v>-13.91</v>
       </c>
       <c r="G7" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-12.72</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.5665</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>0.6311</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>11.41</v>
       </c>
     </row>
@@ -709,12 +778,21 @@
         <v>-98.25</v>
       </c>
       <c r="G8" t="n">
+        <v>44631.91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1388.88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-96.89</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.3685</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>0.4122</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>11.85</v>
       </c>
     </row>
@@ -742,12 +820,21 @@
         <v>-0</v>
       </c>
       <c r="G9" t="n">
+        <v>11561.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11560.73</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.3594</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>0.3602</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -775,12 +862,21 @@
         <v>-27.94</v>
       </c>
       <c r="G10" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-28.33</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.5417</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>0.6052999999999999</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>11.74</v>
       </c>
     </row>
@@ -808,12 +904,21 @@
         <v>-0.01</v>
       </c>
       <c r="G11" t="n">
+        <v>129.89</v>
+      </c>
+      <c r="H11" t="n">
+        <v>129.89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.5744</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>0.5746</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -841,12 +946,21 @@
         <v>-99.14</v>
       </c>
       <c r="G12" t="n">
+        <v>5431.52</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-99.63</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.4568</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>0.6367</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>39.37</v>
       </c>
     </row>
@@ -874,12 +988,21 @@
         <v>-0.04</v>
       </c>
       <c r="G13" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.6987</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>0.699</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -907,12 +1030,21 @@
         <v>-15.1</v>
       </c>
       <c r="G14" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-11.87</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.6318</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>0.6477000000000001</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -940,12 +1072,21 @@
         <v>-14.57</v>
       </c>
       <c r="G15" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-12.48</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.6247</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>0.6487000000000001</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>3.84</v>
       </c>
     </row>
@@ -973,12 +1114,21 @@
         <v>-99.38</v>
       </c>
       <c r="G16" t="n">
+        <v>63523.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>743.23</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-98.83</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.366</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>0.3784</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -1006,12 +1156,21 @@
         <v>-0</v>
       </c>
       <c r="G17" t="n">
+        <v>9723.690000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9724.01</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.3573</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>0.3568</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1039,12 +1198,21 @@
         <v>-19.08</v>
       </c>
       <c r="G18" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-19.64</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.5737</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>0.6062</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>5.66</v>
       </c>
     </row>
@@ -1072,17 +1240,22 @@
         <v>-29.34</v>
       </c>
       <c r="G19" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="H19" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-15.26</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.6141</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="20">
@@ -1109,14 +1282,23 @@
         <v>-0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7046</v>
+        <v>29.27</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7047</v>
+        <v>29.27</v>
       </c>
       <c r="I20" t="n">
         <v>0.01</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.7046</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7047</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1142,12 +1324,21 @@
         <v>-31.27</v>
       </c>
       <c r="G21" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-26.82</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.5861</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>0.6246</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -1175,12 +1366,21 @@
         <v>-20.78</v>
       </c>
       <c r="G22" t="n">
+        <v>56.45</v>
+      </c>
+      <c r="H22" t="n">
+        <v>47.14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.5332</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>0.6105</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>14.5</v>
       </c>
     </row>
@@ -1208,12 +1408,21 @@
         <v>-99.06</v>
       </c>
       <c r="G23" t="n">
+        <v>2877.38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-97.05</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.3484</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>0.3937</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>12.99</v>
       </c>
     </row>
@@ -1241,12 +1450,21 @@
         <v>-47.47</v>
       </c>
       <c r="G24" t="n">
+        <v>34584.62</v>
+      </c>
+      <c r="H24" t="n">
+        <v>29539.36</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-14.59</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.3517</v>
       </c>
-      <c r="H24" t="n">
+      <c r="K24" t="n">
         <v>0.3708</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>5.44</v>
       </c>
     </row>
@@ -1274,12 +1492,21 @@
         <v>-12.88</v>
       </c>
       <c r="G25" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="H25" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-14.76</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.5915</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>0.6128</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -1307,12 +1534,21 @@
         <v>-0.04</v>
       </c>
       <c r="G26" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="H26" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.6543</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>0.6545</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1324,29 +1560,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.25</v>
+        <v>5.72</v>
       </c>
       <c r="D27" t="n">
-        <v>5.56</v>
+        <v>27.53</v>
       </c>
       <c r="E27" t="n">
-        <v>5.56</v>
+        <v>9.6</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.04</v>
+        <v>-65.11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7351</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7348</v>
+        <v>30.13</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.05</v>
+        <v>-58.53</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.6561</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.85</v>
       </c>
     </row>
     <row r="28">
@@ -1357,29 +1602,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.8</v>
+        <v>7.25</v>
       </c>
       <c r="D28" t="n">
-        <v>24.33</v>
+        <v>5.56</v>
       </c>
       <c r="E28" t="n">
-        <v>12.15</v>
+        <v>5.56</v>
       </c>
       <c r="F28" t="n">
-        <v>-50.05</v>
+        <v>-0.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6552</v>
+        <v>20.79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6653</v>
+        <v>20.79</v>
       </c>
       <c r="I28" t="n">
-        <v>1.55</v>
+        <v>0.01</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7348</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="29">
@@ -1390,29 +1644,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>5.8</v>
       </c>
       <c r="D29" t="n">
-        <v>9.09</v>
+        <v>24.33</v>
       </c>
       <c r="E29" t="n">
-        <v>7.79</v>
+        <v>12.15</v>
       </c>
       <c r="F29" t="n">
-        <v>-14.34</v>
+        <v>-50.05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6022999999999999</v>
+        <v>203.59</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6375</v>
+        <v>57.06</v>
       </c>
       <c r="I29" t="n">
-        <v>5.85</v>
+        <v>-71.97</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6653</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="30">
@@ -1423,29 +1686,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>5.8</v>
       </c>
       <c r="D30" t="n">
-        <v>3248.82</v>
+        <v>9.09</v>
       </c>
       <c r="E30" t="n">
-        <v>46.41</v>
+        <v>7.79</v>
       </c>
       <c r="F30" t="n">
-        <v>-98.56999999999999</v>
+        <v>-14.34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3455</v>
+        <v>37.54</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4043</v>
+        <v>29.2</v>
       </c>
       <c r="I30" t="n">
-        <v>17.01</v>
+        <v>-22.23</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.85</v>
       </c>
     </row>
     <row r="31">
@@ -1456,62 +1728,80 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>5.8</v>
       </c>
       <c r="D31" t="n">
-        <v>9645.84</v>
+        <v>3248.82</v>
       </c>
       <c r="E31" t="n">
-        <v>14450.9</v>
+        <v>46.41</v>
       </c>
       <c r="F31" t="n">
-        <v>49.81</v>
+        <v>-98.56999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3483</v>
+        <v>2675.12</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3515</v>
+        <v>130.09</v>
       </c>
       <c r="I31" t="n">
-        <v>0.92</v>
+        <v>-95.14</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="L31" t="n">
+        <v>17.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.12</v>
+        <v>5.8</v>
       </c>
       <c r="D32" t="n">
-        <v>14.67</v>
+        <v>9645.84</v>
       </c>
       <c r="E32" t="n">
-        <v>12.42</v>
+        <v>14450.9</v>
       </c>
       <c r="F32" t="n">
-        <v>-15.31</v>
+        <v>49.81</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5637</v>
+        <v>9803.66</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6037</v>
+        <v>15684.8</v>
       </c>
       <c r="I32" t="n">
-        <v>7.09</v>
+        <v>59.99</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3515</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="33">
@@ -1522,29 +1812,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.22</v>
+        <v>6.12</v>
       </c>
       <c r="D33" t="n">
-        <v>10.54</v>
+        <v>14.67</v>
       </c>
       <c r="E33" t="n">
-        <v>9.220000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="F33" t="n">
-        <v>-12.49</v>
+        <v>-15.31</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5614</v>
+        <v>20.8</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6063</v>
+        <v>17.97</v>
       </c>
       <c r="I33" t="n">
-        <v>7.99</v>
+        <v>-13.61</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5637</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6037</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.09</v>
       </c>
     </row>
     <row r="34">
@@ -1555,29 +1854,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.98</v>
+        <v>6.22</v>
       </c>
       <c r="D34" t="n">
-        <v>11.31</v>
+        <v>10.54</v>
       </c>
       <c r="E34" t="n">
-        <v>9.66</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>-14.58</v>
+        <v>-12.49</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5283</v>
+        <v>17.75</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5943000000000001</v>
+        <v>15.98</v>
       </c>
       <c r="I34" t="n">
-        <v>12.5</v>
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5614</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6063</v>
+      </c>
+      <c r="L34" t="n">
+        <v>7.99</v>
       </c>
     </row>
     <row r="35">
@@ -1588,29 +1896,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.62</v>
+        <v>5.98</v>
       </c>
       <c r="D35" t="n">
-        <v>6.81</v>
+        <v>11.31</v>
       </c>
       <c r="E35" t="n">
-        <v>6.81</v>
+        <v>9.66</v>
       </c>
       <c r="F35" t="n">
-        <v>-0</v>
+        <v>-14.58</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7028</v>
+        <v>18.88</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7022</v>
+        <v>16.64</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.08</v>
+        <v>-11.86</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5283</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -1621,29 +1938,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.09</v>
+        <v>7.62</v>
       </c>
       <c r="D36" t="n">
-        <v>14.46</v>
+        <v>6.81</v>
       </c>
       <c r="E36" t="n">
-        <v>11.4</v>
+        <v>6.81</v>
       </c>
       <c r="F36" t="n">
-        <v>-21.15</v>
+        <v>-0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6094000000000001</v>
+        <v>11.27</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6476</v>
+        <v>11.27</v>
       </c>
       <c r="I36" t="n">
-        <v>6.27</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7028</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7022</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="37">
@@ -1654,29 +1980,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>6.09</v>
       </c>
       <c r="D37" t="n">
-        <v>11.45</v>
+        <v>14.46</v>
       </c>
       <c r="E37" t="n">
-        <v>10.32</v>
+        <v>11.4</v>
       </c>
       <c r="F37" t="n">
-        <v>-9.869999999999999</v>
+        <v>-21.15</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5633</v>
+        <v>20.43</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6197</v>
+        <v>17.32</v>
       </c>
       <c r="I37" t="n">
-        <v>10.01</v>
+        <v>-15.21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6476</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.27</v>
       </c>
     </row>
     <row r="38">
@@ -1687,29 +2022,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>6.09</v>
       </c>
       <c r="D38" t="n">
-        <v>8032.77</v>
+        <v>11.45</v>
       </c>
       <c r="E38" t="n">
-        <v>22.68</v>
+        <v>10.32</v>
       </c>
       <c r="F38" t="n">
-        <v>-99.72</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3804</v>
+        <v>16.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5805</v>
+        <v>15.62</v>
       </c>
       <c r="I38" t="n">
-        <v>52.61</v>
+        <v>-7.05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10.01</v>
       </c>
     </row>
     <row r="39">
@@ -1720,62 +2064,80 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>6.09</v>
       </c>
       <c r="D39" t="n">
-        <v>62.13</v>
+        <v>8032.77</v>
       </c>
       <c r="E39" t="n">
-        <v>12.06</v>
+        <v>22.68</v>
       </c>
       <c r="F39" t="n">
-        <v>-80.58</v>
+        <v>-99.72</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5198</v>
+        <v>5862.19</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6089</v>
+        <v>37.5</v>
       </c>
       <c r="I39" t="n">
-        <v>17.15</v>
+        <v>-99.36</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3804</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5805</v>
+      </c>
+      <c r="L39" t="n">
+        <v>52.61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="D40" t="n">
-        <v>16.74</v>
+        <v>62.13</v>
       </c>
       <c r="E40" t="n">
-        <v>12.79</v>
+        <v>12.06</v>
       </c>
       <c r="F40" t="n">
-        <v>-23.6</v>
+        <v>-80.58</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5712</v>
+        <v>119.56</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6241</v>
+        <v>18.68</v>
       </c>
       <c r="I40" t="n">
-        <v>9.26</v>
+        <v>-84.38</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5198</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6089</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17.15</v>
       </c>
     </row>
     <row r="41">
@@ -1786,29 +2148,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.22</v>
+        <v>6.12</v>
       </c>
       <c r="D41" t="n">
-        <v>11.19</v>
+        <v>16.74</v>
       </c>
       <c r="E41" t="n">
-        <v>9.449999999999999</v>
+        <v>12.79</v>
       </c>
       <c r="F41" t="n">
-        <v>-15.53</v>
+        <v>-23.6</v>
       </c>
       <c r="G41" t="n">
-        <v>0.58</v>
+        <v>24.55</v>
       </c>
       <c r="H41" t="n">
-        <v>0.618</v>
+        <v>19.33</v>
       </c>
       <c r="I41" t="n">
-        <v>6.56</v>
+        <v>-21.27</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9.26</v>
       </c>
     </row>
     <row r="42">
@@ -1819,29 +2190,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.98</v>
+        <v>6.22</v>
       </c>
       <c r="D42" t="n">
-        <v>11.9</v>
+        <v>11.19</v>
       </c>
       <c r="E42" t="n">
-        <v>9.890000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>-16.89</v>
+        <v>-15.53</v>
       </c>
       <c r="G42" t="n">
-        <v>0.541</v>
+        <v>19.58</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5952</v>
+        <v>16.98</v>
       </c>
       <c r="I42" t="n">
-        <v>10.02</v>
+        <v>-13.27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.56</v>
       </c>
     </row>
     <row r="43">
@@ -1852,29 +2232,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7.62</v>
+        <v>5.98</v>
       </c>
       <c r="D43" t="n">
-        <v>7.39</v>
+        <v>11.9</v>
       </c>
       <c r="E43" t="n">
-        <v>7.39</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04</v>
+        <v>-16.89</v>
       </c>
       <c r="G43" t="n">
-        <v>0.717</v>
+        <v>20.89</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7174</v>
+        <v>17.9</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06</v>
+        <v>-14.33</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5952</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10.02</v>
       </c>
     </row>
     <row r="44">
@@ -1885,29 +2274,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.09</v>
+        <v>7.62</v>
       </c>
       <c r="D44" t="n">
-        <v>13.42</v>
+        <v>7.39</v>
       </c>
       <c r="E44" t="n">
-        <v>10.62</v>
+        <v>7.39</v>
       </c>
       <c r="F44" t="n">
-        <v>-20.86</v>
+        <v>0.04</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6202</v>
+        <v>12.68</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6504</v>
+        <v>12.68</v>
       </c>
       <c r="I44" t="n">
-        <v>4.87</v>
+        <v>-0.02</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.7174</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="45">
@@ -1918,29 +2316,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>6.09</v>
       </c>
       <c r="D45" t="n">
-        <v>12.69</v>
+        <v>13.42</v>
       </c>
       <c r="E45" t="n">
-        <v>10.45</v>
+        <v>10.62</v>
       </c>
       <c r="F45" t="n">
-        <v>-17.67</v>
+        <v>-20.86</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6116</v>
+        <v>21.9</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6354</v>
+        <v>17.98</v>
       </c>
       <c r="I45" t="n">
-        <v>3.9</v>
+        <v>-17.89</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6202</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6504</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.87</v>
       </c>
     </row>
     <row r="46">
@@ -1951,29 +2358,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>6.09</v>
       </c>
       <c r="D46" t="n">
-        <v>24485.23</v>
+        <v>12.69</v>
       </c>
       <c r="E46" t="n">
-        <v>40.87</v>
+        <v>10.45</v>
       </c>
       <c r="F46" t="n">
-        <v>-99.83</v>
+        <v>-17.67</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3742</v>
+        <v>20.98</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5656</v>
+        <v>17.79</v>
       </c>
       <c r="I46" t="n">
-        <v>51.15</v>
+        <v>-15.19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.6354</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="47">
@@ -1984,28 +2400,79 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>6.09</v>
       </c>
       <c r="D47" t="n">
+        <v>24485.23</v>
+      </c>
+      <c r="E47" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-99.83</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16344.77</v>
+      </c>
+      <c r="H47" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-99.56999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3742</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="L47" t="n">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>wanda</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D48" t="n">
         <v>120.13</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>12.17</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F48" t="n">
         <v>-89.87</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G48" t="n">
+        <v>259.53</v>
+      </c>
+      <c r="H48" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-92.34999999999999</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.5208</v>
       </c>
-      <c r="H47" t="n">
+      <c r="K48" t="n">
         <v>0.6153999999999999</v>
       </c>
-      <c r="I47" t="n">
+      <c r="L48" t="n">
         <v>18.17</v>
       </c>
     </row>
@@ -2020,7 +2487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2423,20 +2890,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0712</v>
       </c>
     </row>
     <row r="20">
@@ -2594,17 +3055,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8581</v>
+        <v>0.8306</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8587</v>
+        <v>0.8593</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="28">
@@ -2615,17 +3076,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7462</v>
+        <v>0.8581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8083</v>
+        <v>0.8587</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0621</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2636,17 +3097,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6361</v>
+        <v>0.7462</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7508</v>
+        <v>0.8083</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1147</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="30">
@@ -2657,17 +3118,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3817</v>
+        <v>0.6361</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6052</v>
+        <v>0.7508</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2235</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="31">
@@ -2678,38 +3139,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4046</v>
+        <v>0.3817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4257</v>
+        <v>0.6052</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0211</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6596</v>
+        <v>0.4046</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.4257</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0597</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="33">
@@ -2720,17 +3181,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5281</v>
+        <v>0.6596</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5908</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="34">
@@ -2741,17 +3202,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4648</v>
+        <v>0.5281</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6024</v>
+        <v>0.5908</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1376</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -2762,17 +3223,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8468</v>
+        <v>0.4648</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8465</v>
+        <v>0.6024</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0003</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="36">
@@ -2783,17 +3244,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8147</v>
+        <v>0.8468</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8046</v>
+        <v>0.8465</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0101</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="37">
@@ -2804,17 +3265,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5654</v>
+        <v>0.8147</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6823</v>
+        <v>0.8046</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1169</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="38">
@@ -2825,17 +3286,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4006</v>
+        <v>0.5654</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5908</v>
+        <v>0.6823</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1902</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="39">
@@ -2846,38 +3307,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.6205000000000001</v>
+        <v>0.4006</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6844</v>
+        <v>0.5908</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0639</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7403999999999999</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.6844</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0575</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="41">
@@ -2888,17 +3349,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5817</v>
+        <v>0.7403999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6428</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0611</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="42">
@@ -2909,17 +3370,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5083</v>
+        <v>0.5817</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5749</v>
+        <v>0.6428</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="43">
@@ -2930,17 +3391,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8642</v>
+        <v>0.5083</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8642</v>
+        <v>0.5749</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.06660000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2951,17 +3412,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.77</v>
+        <v>0.8642</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8055</v>
+        <v>0.8642</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2972,17 +3433,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6878</v>
+        <v>0.77</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.8055</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0859</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="46">
@@ -2993,17 +3454,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4131</v>
+        <v>0.6878</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5789</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1658</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="47">
@@ -3014,16 +3475,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4131</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5789</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1658</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.6266</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.7089</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.0823</v>
       </c>
     </row>
@@ -3038,7 +3520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3441,20 +3923,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.7367</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7633</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0266</v>
       </c>
     </row>
     <row r="20">
@@ -3612,17 +4088,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8275</v>
+        <v>0.7231</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8264</v>
+        <v>0.7481</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0011</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="28">
@@ -3633,17 +4109,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8041</v>
+        <v>0.8275</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8025</v>
+        <v>0.8264</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0016</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="29">
@@ -3654,17 +4130,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7709</v>
+        <v>0.8041</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7927</v>
+        <v>0.8025</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0218</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="30">
@@ -3675,17 +4151,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4978</v>
+        <v>0.7709</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6317</v>
+        <v>0.7927</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1339</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="31">
@@ -3696,38 +4172,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4935</v>
+        <v>0.4978</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4875</v>
+        <v>0.6317</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.006</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.747</v>
+        <v>0.4935</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7644</v>
+        <v>0.4875</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0174</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="33">
@@ -3738,17 +4214,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7688</v>
+        <v>0.747</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7769</v>
+        <v>0.7644</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0081</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="34">
@@ -3759,17 +4235,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.7399</v>
+        <v>0.7688</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7665999999999999</v>
+        <v>0.7769</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0267</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="35">
@@ -3780,17 +4256,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7982</v>
+        <v>0.7399</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7982</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>-0</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="36">
@@ -3801,17 +4277,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.7285</v>
+        <v>0.7982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7534999999999999</v>
+        <v>0.7982</v>
       </c>
       <c r="E36" t="n">
-        <v>0.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37">
@@ -3822,17 +4298,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7476</v>
+        <v>0.7285</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7665999999999999</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="38">
@@ -3843,17 +4319,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5517</v>
+        <v>0.7476</v>
       </c>
       <c r="D38" t="n">
-        <v>0.753</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2013</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="39">
@@ -3864,38 +4340,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7312</v>
+        <v>0.5517</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7824</v>
+        <v>0.753</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0512</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7301</v>
+        <v>0.7312</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7617</v>
+        <v>0.7824</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0316</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="41">
@@ -3906,17 +4382,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7699</v>
+        <v>0.7301</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7748</v>
+        <v>0.7617</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0049</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="42">
@@ -3927,17 +4403,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7448</v>
+        <v>0.7699</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7682</v>
+        <v>0.7748</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0234</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="43">
@@ -3948,17 +4424,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8041</v>
+        <v>0.7448</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8036</v>
+        <v>0.7682</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0005</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="44">
@@ -3969,17 +4445,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.7459</v>
+        <v>0.8041</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7622</v>
+        <v>0.8036</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0163</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="45">
@@ -3990,17 +4466,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7677</v>
+        <v>0.7459</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7715</v>
+        <v>0.7622</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0038</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="46">
@@ -4011,17 +4487,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5316</v>
+        <v>0.7677</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7323</v>
+        <v>0.7715</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2007</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="47">
@@ -4032,16 +4508,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5316</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7323</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2007</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.7138</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.7688</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.055</v>
       </c>
     </row>
@@ -4056,7 +4553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4459,20 +4956,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.6983</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7452</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0469</v>
       </c>
     </row>
     <row r="20">
@@ -4630,17 +5121,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8293</v>
+        <v>0.6924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8293</v>
+        <v>0.7255</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="28">
@@ -4651,17 +5142,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7297</v>
+        <v>0.8293</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7552</v>
+        <v>0.8293</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4672,17 +5163,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6752</v>
+        <v>0.7297</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7255</v>
+        <v>0.7552</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0503</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="30">
@@ -4693,17 +5184,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2563</v>
+        <v>0.6752</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2579</v>
+        <v>0.7255</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0016</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="31">
@@ -4714,38 +5205,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2578</v>
+        <v>0.2563</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2622</v>
+        <v>0.2579</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0044</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6389</v>
+        <v>0.2578</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6879</v>
+        <v>0.2622</v>
       </c>
       <c r="E32" t="n">
-        <v>0.049</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="33">
@@ -4756,17 +5247,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6445</v>
+        <v>0.6389</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6943</v>
+        <v>0.6879</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0498</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="34">
@@ -4777,17 +5268,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6635</v>
+        <v>0.6943</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0592</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="35">
@@ -4798,17 +5289,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7897999999999999</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7892</v>
+        <v>0.6635</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="36">
@@ -4819,17 +5310,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6405</v>
+        <v>0.7897999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6957</v>
+        <v>0.7892</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0552</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -4840,17 +5331,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6548</v>
+        <v>0.6405</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7023</v>
+        <v>0.6957</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0475</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="38">
@@ -4861,17 +5352,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3114</v>
+        <v>0.6548</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6729000000000001</v>
+        <v>0.7023</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3615</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="39">
@@ -4882,38 +5373,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5078</v>
+        <v>0.3114</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6833</v>
+        <v>0.6729000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1755</v>
+        <v>0.3615</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6526999999999999</v>
+        <v>0.5078</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7006</v>
+        <v>0.6833</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0479</v>
+        <v>0.1755</v>
       </c>
     </row>
     <row r="41">
@@ -4924,17 +5415,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6528</v>
+        <v>0.6526999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6906</v>
+        <v>0.7006</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0378</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="42">
@@ -4945,17 +5436,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6102</v>
+        <v>0.6528</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6652</v>
+        <v>0.6906</v>
       </c>
       <c r="E42" t="n">
-        <v>0.055</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="43">
@@ -4966,17 +5457,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.6102</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8046</v>
+        <v>0.6652</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0003</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="44">
@@ -4987,17 +5478,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6851</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7113</v>
+        <v>0.8046</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0262</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="45">
@@ -5008,17 +5499,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6886</v>
+        <v>0.6851</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7138</v>
+        <v>0.7113</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0252</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="46">
@@ -5029,17 +5520,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2875</v>
+        <v>0.6886</v>
       </c>
       <c r="D46" t="n">
-        <v>0.628</v>
+        <v>0.7138</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3405</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="47">
@@ -5050,16 +5541,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.5016</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.6808</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.1792</v>
       </c>
     </row>
@@ -5074,7 +5586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5477,20 +5989,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.6953</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7064</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0111</v>
       </c>
     </row>
     <row r="20">
@@ -5648,17 +6154,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7419</v>
+        <v>0.6859</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7419</v>
+        <v>0.7088</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="28">
@@ -5669,17 +6175,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6077</v>
+        <v>0.7419</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6622</v>
+        <v>0.7419</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5690,17 +6196,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.603</v>
+        <v>0.6077</v>
       </c>
       <c r="D29" t="n">
-        <v>0.614</v>
+        <v>0.6622</v>
       </c>
       <c r="E29" t="n">
-        <v>0.011</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="30">
@@ -5711,17 +6217,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4901</v>
+        <v>0.603</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4909</v>
+        <v>0.614</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0008</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="31">
@@ -5732,38 +6238,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4893</v>
+        <v>0.4901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4799</v>
+        <v>0.4909</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0094</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5699</v>
+        <v>0.4893</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.4799</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0173</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="33">
@@ -5774,17 +6280,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5541</v>
+        <v>0.5699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5864</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0323</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="34">
@@ -5795,17 +6301,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5406</v>
+        <v>0.5541</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5833</v>
+        <v>0.5864</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0427</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="35">
@@ -5816,17 +6322,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7285</v>
+        <v>0.5406</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7285</v>
+        <v>0.5833</v>
       </c>
       <c r="E35" t="n">
-        <v>-0</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="36">
@@ -5837,17 +6343,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.7285</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6748</v>
+        <v>0.7285</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0039</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37">
@@ -5858,17 +6364,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6251</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6377</v>
+        <v>0.6748</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0126</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="38">
@@ -5879,17 +6385,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4878</v>
+        <v>0.6251</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5864</v>
+        <v>0.6377</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09859999999999999</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="39">
@@ -5900,38 +6406,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5328000000000001</v>
+        <v>0.4878</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6109</v>
+        <v>0.5864</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0781</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5777</v>
+        <v>0.5328000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6101</v>
+        <v>0.6109</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0324</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="41">
@@ -5942,17 +6448,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5556</v>
+        <v>0.5777</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6109</v>
+        <v>0.6101</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0553</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="42">
@@ -5963,17 +6469,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5414</v>
+        <v>0.5556</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5911999999999999</v>
+        <v>0.6109</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0498</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="43">
@@ -5984,17 +6490,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7064</v>
+        <v>0.5414</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7064</v>
+        <v>0.5911999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="44">
@@ -6005,17 +6511,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6322</v>
+        <v>0.7064</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6693</v>
+        <v>0.7064</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0371</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45">
@@ -6026,17 +6532,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.6322</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6101</v>
+        <v>0.6693</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0158</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="46">
@@ -6047,17 +6553,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5162</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5714</v>
+        <v>0.6101</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0552</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="47">
@@ -6068,16 +6574,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5162</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0552</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.5328000000000001</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.6117</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.0789</v>
       </c>
     </row>
@@ -6092,7 +6619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6495,20 +7022,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.6317</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7226</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -6666,17 +7187,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8262</v>
+        <v>0.6309</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8262</v>
+        <v>0.6957</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="28">
@@ -6687,17 +7208,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7534</v>
+        <v>0.8262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7269</v>
+        <v>0.8262</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0265</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29">
@@ -6708,17 +7229,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6953</v>
+        <v>0.7534</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7201</v>
+        <v>0.7269</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0248</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="30">
@@ -6729,17 +7250,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2685</v>
+        <v>0.6953</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3102</v>
+        <v>0.7201</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0417</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="31">
@@ -6750,38 +7271,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2601</v>
+        <v>0.2685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2529</v>
+        <v>0.3102</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0072</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6216</v>
+        <v>0.2601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6646</v>
+        <v>0.2529</v>
       </c>
       <c r="E32" t="n">
-        <v>0.043</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="33">
@@ -6792,17 +7313,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6503</v>
+        <v>0.6216</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.6646</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="34">
@@ -6813,17 +7334,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6246</v>
+        <v>0.6503</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6902</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -6834,17 +7355,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.774</v>
+        <v>0.6246</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7731</v>
+        <v>0.6902</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0009</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -6855,17 +7376,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6503</v>
+        <v>0.774</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7281</v>
+        <v>0.7731</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07779999999999999</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="37">
@@ -6876,17 +7397,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5926</v>
+        <v>0.6503</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6932</v>
+        <v>0.7281</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1006</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -6897,17 +7418,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3497</v>
+        <v>0.5926</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6932</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2677</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="39">
@@ -6918,38 +7439,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5657</v>
+        <v>0.3497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.67</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1043</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5749</v>
+        <v>0.5657</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6801</v>
+        <v>0.67</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1052</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="41">
@@ -6960,17 +7481,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6827</v>
+        <v>0.5749</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7184</v>
+        <v>0.6801</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0357</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="42">
@@ -6981,17 +7502,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6368</v>
+        <v>0.6827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6949</v>
+        <v>0.7184</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0581</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="43">
@@ -7002,17 +7523,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8102</v>
+        <v>0.6368</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8089</v>
+        <v>0.6949</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0013</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="44">
@@ -7023,17 +7544,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6721</v>
+        <v>0.8102</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7079</v>
+        <v>0.8089</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0358</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="45">
@@ -7044,17 +7565,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6886</v>
+        <v>0.6721</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7016</v>
+        <v>0.7079</v>
       </c>
       <c r="E45" t="n">
-        <v>0.013</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="46">
@@ -7065,17 +7586,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.3102</v>
+        <v>0.6886</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6284</v>
+        <v>0.7016</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3182</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="47">
@@ -7086,16 +7607,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3102</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6284</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3182</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.5636</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.6742</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.1106</v>
       </c>
     </row>
@@ -7110,7 +7652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7513,20 +8055,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0563</v>
       </c>
     </row>
     <row r="20">
@@ -7684,17 +8220,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5887</v>
+        <v>0.4608</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5887</v>
+        <v>0.465</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="28">
@@ -7705,17 +8241,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5094</v>
+        <v>0.5887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4804</v>
+        <v>0.5887</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7726,17 +8262,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4258</v>
+        <v>0.5094</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4497</v>
+        <v>0.4804</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0239</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="30">
@@ -7747,17 +8283,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2799</v>
+        <v>0.4258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2679</v>
+        <v>0.4497</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.012</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="31">
@@ -7768,38 +8304,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2765</v>
+        <v>0.2799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2884</v>
+        <v>0.2679</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0119</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3328</v>
+        <v>0.2765</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3985</v>
+        <v>0.2884</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="33">
@@ -7810,17 +8346,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.378</v>
+        <v>0.3328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4701</v>
+        <v>0.3985</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0921</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -7831,17 +8367,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3498</v>
+        <v>0.378</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4462</v>
+        <v>0.4701</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0964</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="35">
@@ -7852,17 +8388,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5102</v>
+        <v>0.3498</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5102</v>
+        <v>0.4462</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="36">
@@ -7873,17 +8409,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.407</v>
+        <v>0.5102</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4787</v>
+        <v>0.5102</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7894,17 +8430,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3933</v>
+        <v>0.407</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4556</v>
+        <v>0.4787</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0623</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="38">
@@ -7915,17 +8451,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2696</v>
+        <v>0.3933</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4531</v>
+        <v>0.4556</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1835</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="39">
@@ -7936,38 +8472,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3089</v>
+        <v>0.2696</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4155</v>
+        <v>0.4531</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1066</v>
+        <v>0.1835</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3626</v>
+        <v>0.3089</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4224</v>
+        <v>0.4155</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0598</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="41">
@@ -7978,17 +8514,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4053</v>
+        <v>0.3626</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4667</v>
+        <v>0.4224</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0614</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="42">
@@ -7999,17 +8535,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.3635</v>
+        <v>0.4053</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4539</v>
+        <v>0.4667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="43">
@@ -8020,17 +8556,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5495</v>
+        <v>0.3635</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5503</v>
+        <v>0.4539</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0008</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -8041,17 +8577,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4198</v>
+        <v>0.5495</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4744</v>
+        <v>0.5503</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0546</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="45">
@@ -8062,17 +8598,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4565</v>
+        <v>0.4198</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4514</v>
+        <v>0.4744</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0051</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="46">
@@ -8083,17 +8619,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2645</v>
+        <v>0.4565</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4343</v>
+        <v>0.4514</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1698</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="47">
@@ -8104,16 +8640,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4343</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1698</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.337</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.4377</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.1007</v>
       </c>
     </row>
@@ -8128,7 +8685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8531,20 +9088,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="20">
@@ -8702,17 +9253,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.474</v>
+        <v>0.356</v>
       </c>
       <c r="D27" t="n">
-        <v>0.472</v>
+        <v>0.39</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.002</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="28">
@@ -8723,17 +9274,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.436</v>
+        <v>0.474</v>
       </c>
       <c r="D28" t="n">
-        <v>0.422</v>
+        <v>0.472</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.014</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="29">
@@ -8744,17 +9295,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.41</v>
+        <v>0.436</v>
       </c>
       <c r="D29" t="n">
-        <v>0.41</v>
+        <v>0.422</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="30">
@@ -8765,17 +9316,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.244</v>
+        <v>0.41</v>
       </c>
       <c r="D30" t="n">
-        <v>0.266</v>
+        <v>0.41</v>
       </c>
       <c r="E30" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8786,38 +9337,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.256</v>
+        <v>0.244</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.376</v>
+        <v>0.256</v>
       </c>
       <c r="D32" t="n">
-        <v>0.404</v>
+        <v>0.264</v>
       </c>
       <c r="E32" t="n">
-        <v>0.028</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="33">
@@ -8828,17 +9379,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.406</v>
+        <v>0.376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406</v>
+        <v>0.404</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="34">
@@ -8849,17 +9400,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.374</v>
+        <v>0.406</v>
       </c>
       <c r="D34" t="n">
-        <v>0.408</v>
+        <v>0.406</v>
       </c>
       <c r="E34" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8870,17 +9421,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.472</v>
+        <v>0.374</v>
       </c>
       <c r="D35" t="n">
-        <v>0.47</v>
+        <v>0.408</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.002</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="36">
@@ -8891,17 +9442,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.354</v>
+        <v>0.472</v>
       </c>
       <c r="D36" t="n">
-        <v>0.398</v>
+        <v>0.47</v>
       </c>
       <c r="E36" t="n">
-        <v>0.044</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="37">
@@ -8912,17 +9463,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.364</v>
+        <v>0.354</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="E37" t="n">
-        <v>0.036</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="38">
@@ -8933,17 +9484,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.292</v>
+        <v>0.364</v>
       </c>
       <c r="D38" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E38" t="n">
-        <v>0.098</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="39">
@@ -8954,38 +9505,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.372</v>
+        <v>0.292</v>
       </c>
       <c r="D39" t="n">
-        <v>0.416</v>
+        <v>0.39</v>
       </c>
       <c r="E39" t="n">
-        <v>0.044</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.36</v>
+        <v>0.372</v>
       </c>
       <c r="D40" t="n">
-        <v>0.396</v>
+        <v>0.416</v>
       </c>
       <c r="E40" t="n">
-        <v>0.036</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="41">
@@ -8996,17 +9547,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.412</v>
+        <v>0.36</v>
       </c>
       <c r="D41" t="n">
-        <v>0.422</v>
+        <v>0.396</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="42">
@@ -9017,17 +9568,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.382</v>
+        <v>0.412</v>
       </c>
       <c r="D42" t="n">
-        <v>0.418</v>
+        <v>0.422</v>
       </c>
       <c r="E42" t="n">
-        <v>0.036</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43">
@@ -9038,17 +9589,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.48</v>
+        <v>0.382</v>
       </c>
       <c r="D43" t="n">
-        <v>0.484</v>
+        <v>0.418</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="44">
@@ -9059,17 +9610,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.416</v>
+        <v>0.48</v>
       </c>
       <c r="D44" t="n">
-        <v>0.422</v>
+        <v>0.484</v>
       </c>
       <c r="E44" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="45">
@@ -9080,17 +9631,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.398</v>
+        <v>0.416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.426</v>
+        <v>0.422</v>
       </c>
       <c r="E45" t="n">
-        <v>0.028</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="46">
@@ -9101,17 +9652,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.296</v>
+        <v>0.398</v>
       </c>
       <c r="D46" t="n">
-        <v>0.386</v>
+        <v>0.426</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="47">
@@ -9122,16 +9673,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>0.37</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>0.426</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>0.056</v>
       </c>
     </row>

--- a/outputs/per_model_excel/ALL_MODELS_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/ALL_MODELS_finetuning_summary.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,38 +1266,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.25</v>
+        <v>5.72</v>
       </c>
       <c r="D20" t="n">
-        <v>5.38</v>
+        <v>26.44</v>
       </c>
       <c r="E20" t="n">
-        <v>5.38</v>
+        <v>9.57</v>
       </c>
       <c r="F20" t="n">
-        <v>-0</v>
+        <v>-63.81</v>
       </c>
       <c r="G20" t="n">
-        <v>29.27</v>
+        <v>88.33</v>
       </c>
       <c r="H20" t="n">
-        <v>29.27</v>
+        <v>48.51</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01</v>
+        <v>-45.08</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7046</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7047</v>
+        <v>0.6543</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="21">
@@ -1308,38 +1308,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.8</v>
+        <v>7.25</v>
       </c>
       <c r="D21" t="n">
-        <v>15.22</v>
+        <v>5.38</v>
       </c>
       <c r="E21" t="n">
-        <v>10.46</v>
+        <v>5.38</v>
       </c>
       <c r="F21" t="n">
-        <v>-31.27</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>38.08</v>
+        <v>29.27</v>
       </c>
       <c r="H21" t="n">
-        <v>27.87</v>
+        <v>29.27</v>
       </c>
       <c r="I21" t="n">
-        <v>-26.82</v>
+        <v>0.01</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5861</v>
+        <v>0.7046</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6246</v>
+        <v>0.7047</v>
       </c>
       <c r="L21" t="n">
-        <v>6.57</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
@@ -1350,38 +1350,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>5.8</v>
       </c>
       <c r="D22" t="n">
-        <v>9.69</v>
+        <v>15.22</v>
       </c>
       <c r="E22" t="n">
-        <v>7.68</v>
+        <v>10.46</v>
       </c>
       <c r="F22" t="n">
-        <v>-20.78</v>
+        <v>-31.27</v>
       </c>
       <c r="G22" t="n">
-        <v>56.45</v>
+        <v>38.08</v>
       </c>
       <c r="H22" t="n">
-        <v>47.14</v>
+        <v>27.87</v>
       </c>
       <c r="I22" t="n">
-        <v>-16.5</v>
+        <v>-26.82</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5332</v>
+        <v>0.5861</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6105</v>
+        <v>0.6246</v>
       </c>
       <c r="L22" t="n">
-        <v>14.5</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="23">
@@ -1392,38 +1392,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>5.8</v>
       </c>
       <c r="D23" t="n">
-        <v>3643.69</v>
+        <v>9.69</v>
       </c>
       <c r="E23" t="n">
-        <v>34.16</v>
+        <v>7.68</v>
       </c>
       <c r="F23" t="n">
-        <v>-99.06</v>
+        <v>-20.78</v>
       </c>
       <c r="G23" t="n">
-        <v>2877.38</v>
+        <v>56.45</v>
       </c>
       <c r="H23" t="n">
-        <v>84.73999999999999</v>
+        <v>47.14</v>
       </c>
       <c r="I23" t="n">
-        <v>-97.05</v>
+        <v>-16.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3484</v>
+        <v>0.5332</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3937</v>
+        <v>0.6105</v>
       </c>
       <c r="L23" t="n">
-        <v>12.99</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
@@ -1434,80 +1434,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>5.8</v>
       </c>
       <c r="D24" t="n">
-        <v>36867.94</v>
+        <v>3643.69</v>
       </c>
       <c r="E24" t="n">
-        <v>19367.2</v>
+        <v>34.16</v>
       </c>
       <c r="F24" t="n">
-        <v>-47.47</v>
+        <v>-99.06</v>
       </c>
       <c r="G24" t="n">
-        <v>34584.62</v>
+        <v>2877.38</v>
       </c>
       <c r="H24" t="n">
-        <v>29539.36</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>-14.59</v>
+        <v>-97.05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3517</v>
+        <v>0.3484</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3708</v>
+        <v>0.3937</v>
       </c>
       <c r="L24" t="n">
-        <v>5.44</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.83</v>
+        <v>5.8</v>
       </c>
       <c r="D25" t="n">
-        <v>9.029999999999999</v>
+        <v>36867.94</v>
       </c>
       <c r="E25" t="n">
-        <v>7.87</v>
+        <v>19367.2</v>
       </c>
       <c r="F25" t="n">
-        <v>-12.88</v>
+        <v>-47.47</v>
       </c>
       <c r="G25" t="n">
-        <v>41.84</v>
+        <v>34584.62</v>
       </c>
       <c r="H25" t="n">
-        <v>35.67</v>
+        <v>29539.36</v>
       </c>
       <c r="I25" t="n">
-        <v>-14.76</v>
+        <v>-14.59</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5915</v>
+        <v>0.3517</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6128</v>
+        <v>0.3708</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="26">
@@ -1518,38 +1518,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.94</v>
+        <v>5.83</v>
       </c>
       <c r="D26" t="n">
-        <v>12.68</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>12.68</v>
+        <v>7.87</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.04</v>
+        <v>-12.88</v>
       </c>
       <c r="G26" t="n">
-        <v>35.41</v>
+        <v>41.84</v>
       </c>
       <c r="H26" t="n">
-        <v>35.41</v>
+        <v>35.67</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01</v>
+        <v>-14.76</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6543</v>
+        <v>0.5915</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6545</v>
+        <v>0.6128</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27">
@@ -1560,38 +1560,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.72</v>
+        <v>5.94</v>
       </c>
       <c r="D27" t="n">
-        <v>27.53</v>
+        <v>12.68</v>
       </c>
       <c r="E27" t="n">
-        <v>9.6</v>
+        <v>12.68</v>
       </c>
       <c r="F27" t="n">
-        <v>-65.11</v>
+        <v>-0.04</v>
       </c>
       <c r="G27" t="n">
-        <v>72.65000000000001</v>
+        <v>35.41</v>
       </c>
       <c r="H27" t="n">
-        <v>30.13</v>
+        <v>35.41</v>
       </c>
       <c r="I27" t="n">
-        <v>-58.53</v>
+        <v>0.01</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6257</v>
+        <v>0.6543</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6561</v>
+        <v>0.6545</v>
       </c>
       <c r="L27" t="n">
-        <v>4.85</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="28">
@@ -1602,38 +1602,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.25</v>
+        <v>5.72</v>
       </c>
       <c r="D28" t="n">
-        <v>5.56</v>
+        <v>27.53</v>
       </c>
       <c r="E28" t="n">
-        <v>5.56</v>
+        <v>9.6</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.04</v>
+        <v>-65.11</v>
       </c>
       <c r="G28" t="n">
-        <v>20.79</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>20.79</v>
+        <v>30.13</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01</v>
+        <v>-58.53</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7351</v>
+        <v>0.6257</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7348</v>
+        <v>0.6561</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.05</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="29">
@@ -1644,38 +1644,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.8</v>
+        <v>7.25</v>
       </c>
       <c r="D29" t="n">
-        <v>24.33</v>
+        <v>5.56</v>
       </c>
       <c r="E29" t="n">
-        <v>12.15</v>
+        <v>5.56</v>
       </c>
       <c r="F29" t="n">
-        <v>-50.05</v>
+        <v>-0.04</v>
       </c>
       <c r="G29" t="n">
-        <v>203.59</v>
+        <v>20.79</v>
       </c>
       <c r="H29" t="n">
-        <v>57.06</v>
+        <v>20.79</v>
       </c>
       <c r="I29" t="n">
-        <v>-71.97</v>
+        <v>0.01</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6552</v>
+        <v>0.7351</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6653</v>
+        <v>0.7348</v>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="30">
@@ -1686,38 +1686,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>5.8</v>
       </c>
       <c r="D30" t="n">
-        <v>9.09</v>
+        <v>24.33</v>
       </c>
       <c r="E30" t="n">
-        <v>7.79</v>
+        <v>12.15</v>
       </c>
       <c r="F30" t="n">
-        <v>-14.34</v>
+        <v>-50.05</v>
       </c>
       <c r="G30" t="n">
-        <v>37.54</v>
+        <v>203.59</v>
       </c>
       <c r="H30" t="n">
-        <v>29.2</v>
+        <v>57.06</v>
       </c>
       <c r="I30" t="n">
-        <v>-22.23</v>
+        <v>-71.97</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6552</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6375</v>
+        <v>0.6653</v>
       </c>
       <c r="L30" t="n">
-        <v>5.85</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="31">
@@ -1728,38 +1728,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>5.8</v>
       </c>
       <c r="D31" t="n">
-        <v>3248.82</v>
+        <v>9.09</v>
       </c>
       <c r="E31" t="n">
-        <v>46.41</v>
+        <v>7.79</v>
       </c>
       <c r="F31" t="n">
-        <v>-98.56999999999999</v>
+        <v>-14.34</v>
       </c>
       <c r="G31" t="n">
-        <v>2675.12</v>
+        <v>37.54</v>
       </c>
       <c r="H31" t="n">
-        <v>130.09</v>
+        <v>29.2</v>
       </c>
       <c r="I31" t="n">
-        <v>-95.14</v>
+        <v>-22.23</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3455</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4043</v>
+        <v>0.6375</v>
       </c>
       <c r="L31" t="n">
-        <v>17.01</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="32">
@@ -1770,80 +1770,80 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>5.8</v>
       </c>
       <c r="D32" t="n">
-        <v>9645.84</v>
+        <v>3248.82</v>
       </c>
       <c r="E32" t="n">
-        <v>14450.9</v>
+        <v>46.41</v>
       </c>
       <c r="F32" t="n">
-        <v>49.81</v>
+        <v>-98.56999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>9803.66</v>
+        <v>2675.12</v>
       </c>
       <c r="H32" t="n">
-        <v>15684.8</v>
+        <v>130.09</v>
       </c>
       <c r="I32" t="n">
-        <v>59.99</v>
+        <v>-95.14</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3483</v>
+        <v>0.3455</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3515</v>
+        <v>0.4043</v>
       </c>
       <c r="L32" t="n">
-        <v>0.92</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.12</v>
+        <v>5.8</v>
       </c>
       <c r="D33" t="n">
-        <v>14.67</v>
+        <v>9645.84</v>
       </c>
       <c r="E33" t="n">
-        <v>12.42</v>
+        <v>14450.9</v>
       </c>
       <c r="F33" t="n">
-        <v>-15.31</v>
+        <v>49.81</v>
       </c>
       <c r="G33" t="n">
-        <v>20.8</v>
+        <v>9803.66</v>
       </c>
       <c r="H33" t="n">
-        <v>17.97</v>
+        <v>15684.8</v>
       </c>
       <c r="I33" t="n">
-        <v>-13.61</v>
+        <v>59.99</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5637</v>
+        <v>0.3483</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6037</v>
+        <v>0.3515</v>
       </c>
       <c r="L33" t="n">
-        <v>7.09</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="34">
@@ -1854,38 +1854,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.22</v>
+        <v>6.12</v>
       </c>
       <c r="D34" t="n">
-        <v>10.54</v>
+        <v>14.67</v>
       </c>
       <c r="E34" t="n">
-        <v>9.220000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="F34" t="n">
-        <v>-12.49</v>
+        <v>-15.31</v>
       </c>
       <c r="G34" t="n">
-        <v>17.75</v>
+        <v>20.8</v>
       </c>
       <c r="H34" t="n">
-        <v>15.98</v>
+        <v>17.97</v>
       </c>
       <c r="I34" t="n">
-        <v>-9.949999999999999</v>
+        <v>-13.61</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5614</v>
+        <v>0.5637</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6063</v>
+        <v>0.6037</v>
       </c>
       <c r="L34" t="n">
-        <v>7.99</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="35">
@@ -1896,38 +1896,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.98</v>
+        <v>6.22</v>
       </c>
       <c r="D35" t="n">
-        <v>11.31</v>
+        <v>10.54</v>
       </c>
       <c r="E35" t="n">
-        <v>9.66</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>-14.58</v>
+        <v>-12.49</v>
       </c>
       <c r="G35" t="n">
-        <v>18.88</v>
+        <v>17.75</v>
       </c>
       <c r="H35" t="n">
-        <v>16.64</v>
+        <v>15.98</v>
       </c>
       <c r="I35" t="n">
-        <v>-11.86</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5283</v>
+        <v>0.5614</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.6063</v>
       </c>
       <c r="L35" t="n">
-        <v>12.5</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="36">
@@ -1938,38 +1938,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.62</v>
+        <v>5.98</v>
       </c>
       <c r="D36" t="n">
-        <v>6.81</v>
+        <v>11.31</v>
       </c>
       <c r="E36" t="n">
-        <v>6.81</v>
+        <v>9.66</v>
       </c>
       <c r="F36" t="n">
-        <v>-0</v>
+        <v>-14.58</v>
       </c>
       <c r="G36" t="n">
-        <v>11.27</v>
+        <v>18.88</v>
       </c>
       <c r="H36" t="n">
-        <v>11.27</v>
+        <v>16.64</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-11.86</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7028</v>
+        <v>0.5283</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7022</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.08</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="37">
@@ -1980,38 +1980,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.09</v>
+        <v>7.62</v>
       </c>
       <c r="D37" t="n">
-        <v>14.46</v>
+        <v>6.81</v>
       </c>
       <c r="E37" t="n">
-        <v>11.4</v>
+        <v>6.81</v>
       </c>
       <c r="F37" t="n">
-        <v>-21.15</v>
+        <v>-0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.43</v>
+        <v>11.27</v>
       </c>
       <c r="H37" t="n">
-        <v>17.32</v>
+        <v>11.27</v>
       </c>
       <c r="I37" t="n">
-        <v>-15.21</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.7028</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6476</v>
+        <v>0.7022</v>
       </c>
       <c r="L37" t="n">
-        <v>6.27</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="38">
@@ -2022,38 +2022,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>6.09</v>
       </c>
       <c r="D38" t="n">
-        <v>11.45</v>
+        <v>14.46</v>
       </c>
       <c r="E38" t="n">
-        <v>10.32</v>
+        <v>11.4</v>
       </c>
       <c r="F38" t="n">
-        <v>-9.869999999999999</v>
+        <v>-21.15</v>
       </c>
       <c r="G38" t="n">
-        <v>16.8</v>
+        <v>20.43</v>
       </c>
       <c r="H38" t="n">
-        <v>15.62</v>
+        <v>17.32</v>
       </c>
       <c r="I38" t="n">
-        <v>-7.05</v>
+        <v>-15.21</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5633</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6197</v>
+        <v>0.6476</v>
       </c>
       <c r="L38" t="n">
-        <v>10.01</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="39">
@@ -2064,38 +2064,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>6.09</v>
       </c>
       <c r="D39" t="n">
-        <v>8032.77</v>
+        <v>11.45</v>
       </c>
       <c r="E39" t="n">
-        <v>22.68</v>
+        <v>10.32</v>
       </c>
       <c r="F39" t="n">
-        <v>-99.72</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>5862.19</v>
+        <v>16.8</v>
       </c>
       <c r="H39" t="n">
-        <v>37.5</v>
+        <v>15.62</v>
       </c>
       <c r="I39" t="n">
-        <v>-99.36</v>
+        <v>-7.05</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3804</v>
+        <v>0.5633</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5805</v>
+        <v>0.6197</v>
       </c>
       <c r="L39" t="n">
-        <v>52.61</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="40">
@@ -2106,80 +2106,80 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>6.09</v>
       </c>
       <c r="D40" t="n">
-        <v>62.13</v>
+        <v>8032.77</v>
       </c>
       <c r="E40" t="n">
-        <v>12.06</v>
+        <v>22.68</v>
       </c>
       <c r="F40" t="n">
-        <v>-80.58</v>
+        <v>-99.72</v>
       </c>
       <c r="G40" t="n">
-        <v>119.56</v>
+        <v>5862.19</v>
       </c>
       <c r="H40" t="n">
-        <v>18.68</v>
+        <v>37.5</v>
       </c>
       <c r="I40" t="n">
-        <v>-84.38</v>
+        <v>-99.36</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5198</v>
+        <v>0.3804</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6089</v>
+        <v>0.5805</v>
       </c>
       <c r="L40" t="n">
-        <v>17.15</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="D41" t="n">
-        <v>16.74</v>
+        <v>62.13</v>
       </c>
       <c r="E41" t="n">
-        <v>12.79</v>
+        <v>12.06</v>
       </c>
       <c r="F41" t="n">
-        <v>-23.6</v>
+        <v>-80.58</v>
       </c>
       <c r="G41" t="n">
-        <v>24.55</v>
+        <v>119.56</v>
       </c>
       <c r="H41" t="n">
-        <v>19.33</v>
+        <v>18.68</v>
       </c>
       <c r="I41" t="n">
-        <v>-21.27</v>
+        <v>-84.38</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5712</v>
+        <v>0.5198</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6241</v>
+        <v>0.6089</v>
       </c>
       <c r="L41" t="n">
-        <v>9.26</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="42">
@@ -2190,38 +2190,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.22</v>
+        <v>6.12</v>
       </c>
       <c r="D42" t="n">
-        <v>11.19</v>
+        <v>16.74</v>
       </c>
       <c r="E42" t="n">
-        <v>9.449999999999999</v>
+        <v>12.79</v>
       </c>
       <c r="F42" t="n">
-        <v>-15.53</v>
+        <v>-23.6</v>
       </c>
       <c r="G42" t="n">
-        <v>19.58</v>
+        <v>24.55</v>
       </c>
       <c r="H42" t="n">
-        <v>16.98</v>
+        <v>19.33</v>
       </c>
       <c r="I42" t="n">
-        <v>-13.27</v>
+        <v>-21.27</v>
       </c>
       <c r="J42" t="n">
-        <v>0.58</v>
+        <v>0.5712</v>
       </c>
       <c r="K42" t="n">
-        <v>0.618</v>
+        <v>0.6241</v>
       </c>
       <c r="L42" t="n">
-        <v>6.56</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="43">
@@ -2232,38 +2232,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.98</v>
+        <v>6.22</v>
       </c>
       <c r="D43" t="n">
-        <v>11.9</v>
+        <v>11.19</v>
       </c>
       <c r="E43" t="n">
-        <v>9.890000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>-16.89</v>
+        <v>-15.53</v>
       </c>
       <c r="G43" t="n">
-        <v>20.89</v>
+        <v>19.58</v>
       </c>
       <c r="H43" t="n">
-        <v>17.9</v>
+        <v>16.98</v>
       </c>
       <c r="I43" t="n">
-        <v>-14.33</v>
+        <v>-13.27</v>
       </c>
       <c r="J43" t="n">
-        <v>0.541</v>
+        <v>0.58</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5952</v>
+        <v>0.618</v>
       </c>
       <c r="L43" t="n">
-        <v>10.02</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="44">
@@ -2274,38 +2274,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.62</v>
+        <v>5.98</v>
       </c>
       <c r="D44" t="n">
-        <v>7.39</v>
+        <v>11.9</v>
       </c>
       <c r="E44" t="n">
-        <v>7.39</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04</v>
+        <v>-16.89</v>
       </c>
       <c r="G44" t="n">
-        <v>12.68</v>
+        <v>20.89</v>
       </c>
       <c r="H44" t="n">
-        <v>12.68</v>
+        <v>17.9</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.02</v>
+        <v>-14.33</v>
       </c>
       <c r="J44" t="n">
-        <v>0.717</v>
+        <v>0.541</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7174</v>
+        <v>0.5952</v>
       </c>
       <c r="L44" t="n">
-        <v>0.06</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="45">
@@ -2316,38 +2316,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6.09</v>
+        <v>7.62</v>
       </c>
       <c r="D45" t="n">
-        <v>13.42</v>
+        <v>7.39</v>
       </c>
       <c r="E45" t="n">
-        <v>10.62</v>
+        <v>7.39</v>
       </c>
       <c r="F45" t="n">
-        <v>-20.86</v>
+        <v>0.04</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9</v>
+        <v>12.68</v>
       </c>
       <c r="H45" t="n">
-        <v>17.98</v>
+        <v>12.68</v>
       </c>
       <c r="I45" t="n">
-        <v>-17.89</v>
+        <v>-0.02</v>
       </c>
       <c r="J45" t="n">
-        <v>0.6202</v>
+        <v>0.717</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6504</v>
+        <v>0.7174</v>
       </c>
       <c r="L45" t="n">
-        <v>4.87</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
@@ -2358,38 +2358,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>6.09</v>
       </c>
       <c r="D46" t="n">
-        <v>12.69</v>
+        <v>13.42</v>
       </c>
       <c r="E46" t="n">
-        <v>10.45</v>
+        <v>10.62</v>
       </c>
       <c r="F46" t="n">
-        <v>-17.67</v>
+        <v>-20.86</v>
       </c>
       <c r="G46" t="n">
-        <v>20.98</v>
+        <v>21.9</v>
       </c>
       <c r="H46" t="n">
-        <v>17.79</v>
+        <v>17.98</v>
       </c>
       <c r="I46" t="n">
-        <v>-15.19</v>
+        <v>-17.89</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6116</v>
+        <v>0.6202</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6354</v>
+        <v>0.6504</v>
       </c>
       <c r="L46" t="n">
-        <v>3.9</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="47">
@@ -2400,38 +2400,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>6.09</v>
       </c>
       <c r="D47" t="n">
-        <v>24485.23</v>
+        <v>12.69</v>
       </c>
       <c r="E47" t="n">
-        <v>40.87</v>
+        <v>10.45</v>
       </c>
       <c r="F47" t="n">
-        <v>-99.83</v>
+        <v>-17.67</v>
       </c>
       <c r="G47" t="n">
-        <v>16344.77</v>
+        <v>20.98</v>
       </c>
       <c r="H47" t="n">
-        <v>70.29000000000001</v>
+        <v>17.79</v>
       </c>
       <c r="I47" t="n">
-        <v>-99.56999999999999</v>
+        <v>-15.19</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3742</v>
+        <v>0.6116</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5656</v>
+        <v>0.6354</v>
       </c>
       <c r="L47" t="n">
-        <v>51.15</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="48">
@@ -2442,37 +2442,79 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>6.09</v>
       </c>
       <c r="D48" t="n">
+        <v>24485.23</v>
+      </c>
+      <c r="E48" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-99.83</v>
+      </c>
+      <c r="G48" t="n">
+        <v>16344.77</v>
+      </c>
+      <c r="H48" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-99.56999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3742</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="L48" t="n">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>wanda</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D49" t="n">
         <v>120.13</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>12.17</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>-89.87</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G49" t="n">
         <v>259.53</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>19.84</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>-92.34999999999999</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J49" t="n">
         <v>0.5208</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>0.6153999999999999</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>18.17</v>
       </c>
     </row>
@@ -2487,7 +2529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,17 +2950,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8211000000000001</v>
+        <v>0.6966</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8214</v>
+        <v>0.8407</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="21">
@@ -2929,17 +2971,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7642</v>
+        <v>0.8211000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7994</v>
+        <v>0.8214</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0352</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="22">
@@ -2950,17 +2992,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6505</v>
+        <v>0.7642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7020999999999999</v>
+        <v>0.7994</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0516</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="23">
@@ -2971,17 +3013,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3783</v>
+        <v>0.6505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5716</v>
+        <v>0.7020999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1933</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="24">
@@ -2992,38 +3034,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4098</v>
+        <v>0.3783</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5346</v>
+        <v>0.5716</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1248</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6217</v>
+        <v>0.4098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6339</v>
+        <v>0.5346</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0122</v>
+        <v>0.1248</v>
       </c>
     </row>
     <row r="26">
@@ -3034,17 +3076,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.8498</v>
+        <v>0.6217</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8495</v>
+        <v>0.6339</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0003</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="27">
@@ -3055,17 +3097,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8306</v>
+        <v>0.8498</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8593</v>
+        <v>0.8495</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0287</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="28">
@@ -3076,17 +3118,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8581</v>
+        <v>0.8306</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8587</v>
+        <v>0.8593</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="29">
@@ -3097,17 +3139,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7462</v>
+        <v>0.8581</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8083</v>
+        <v>0.8587</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0621</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3118,17 +3160,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6361</v>
+        <v>0.7462</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7508</v>
+        <v>0.8083</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1147</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="31">
@@ -3139,17 +3181,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3817</v>
+        <v>0.6361</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6052</v>
+        <v>0.7508</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2235</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="32">
@@ -3160,38 +3202,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4046</v>
+        <v>0.3817</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4257</v>
+        <v>0.6052</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0211</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6596</v>
+        <v>0.4046</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.4257</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0597</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="34">
@@ -3202,17 +3244,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5281</v>
+        <v>0.6596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5908</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="35">
@@ -3223,17 +3265,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.4648</v>
+        <v>0.5281</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6024</v>
+        <v>0.5908</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1376</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3244,17 +3286,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8468</v>
+        <v>0.4648</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8465</v>
+        <v>0.6024</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0003</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="37">
@@ -3265,17 +3307,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8147</v>
+        <v>0.8468</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8046</v>
+        <v>0.8465</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0101</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="38">
@@ -3286,17 +3328,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5654</v>
+        <v>0.8147</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6823</v>
+        <v>0.8046</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1169</v>
+        <v>-0.0101</v>
       </c>
     </row>
     <row r="39">
@@ -3307,17 +3349,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4006</v>
+        <v>0.5654</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5908</v>
+        <v>0.6823</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1902</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="40">
@@ -3328,38 +3370,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6205000000000001</v>
+        <v>0.4006</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6844</v>
+        <v>0.5908</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0639</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7403999999999999</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.6844</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0575</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="42">
@@ -3370,17 +3412,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5817</v>
+        <v>0.7403999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6428</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0611</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="43">
@@ -3391,17 +3433,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5083</v>
+        <v>0.5817</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5749</v>
+        <v>0.6428</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="44">
@@ -3412,17 +3454,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8642</v>
+        <v>0.5083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8642</v>
+        <v>0.5749</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.06660000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3433,17 +3475,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.77</v>
+        <v>0.8642</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8055</v>
+        <v>0.8642</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3454,17 +3496,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6878</v>
+        <v>0.77</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.8055</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0859</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="47">
@@ -3475,17 +3517,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.4131</v>
+        <v>0.6878</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5789</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1658</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="48">
@@ -3496,16 +3538,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4131</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5789</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1658</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.6266</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.7089</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.0823</v>
       </c>
     </row>
@@ -3520,7 +3583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3941,17 +4004,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8226</v>
+        <v>0.7236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8226</v>
+        <v>0.7546</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="21">
@@ -3962,17 +4025,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7181999999999999</v>
+        <v>0.8226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7361</v>
+        <v>0.8226</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3983,17 +4046,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.7612</v>
+        <v>0.7181999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7905</v>
+        <v>0.7361</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0293</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="23">
@@ -4004,17 +4067,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4956</v>
+        <v>0.7612</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6072</v>
+        <v>0.7905</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1116</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="24">
@@ -4025,38 +4088,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4902</v>
+        <v>0.4956</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5087</v>
+        <v>0.6072</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0185</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7715</v>
+        <v>0.4902</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7709</v>
+        <v>0.5087</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="26">
@@ -4067,17 +4130,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7296</v>
+        <v>0.7715</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7301</v>
+        <v>0.7709</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -4088,17 +4151,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7231</v>
+        <v>0.7296</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7481</v>
+        <v>0.7301</v>
       </c>
       <c r="E27" t="n">
-        <v>0.025</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="28">
@@ -4109,17 +4172,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8275</v>
+        <v>0.7231</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8264</v>
+        <v>0.7481</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0011</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="29">
@@ -4130,17 +4193,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8041</v>
+        <v>0.8275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8025</v>
+        <v>0.8264</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0016</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="30">
@@ -4151,17 +4214,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7709</v>
+        <v>0.8041</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7927</v>
+        <v>0.8025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0218</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="31">
@@ -4172,17 +4235,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4978</v>
+        <v>0.7709</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6317</v>
+        <v>0.7927</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1339</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="32">
@@ -4193,38 +4256,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4935</v>
+        <v>0.4978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4875</v>
+        <v>0.6317</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.006</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.747</v>
+        <v>0.4935</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7644</v>
+        <v>0.4875</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0174</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="34">
@@ -4235,17 +4298,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.7688</v>
+        <v>0.747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7769</v>
+        <v>0.7644</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0081</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="35">
@@ -4256,17 +4319,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7399</v>
+        <v>0.7688</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7665999999999999</v>
+        <v>0.7769</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0267</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="36">
@@ -4277,17 +4340,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.7982</v>
+        <v>0.7399</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7982</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="37">
@@ -4298,17 +4361,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7285</v>
+        <v>0.7982</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7534999999999999</v>
+        <v>0.7982</v>
       </c>
       <c r="E37" t="n">
-        <v>0.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38">
@@ -4319,17 +4382,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7476</v>
+        <v>0.7285</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7665999999999999</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="39">
@@ -4340,17 +4403,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5517</v>
+        <v>0.7476</v>
       </c>
       <c r="D39" t="n">
-        <v>0.753</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2013</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="40">
@@ -4361,38 +4424,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7312</v>
+        <v>0.5517</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7824</v>
+        <v>0.753</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0512</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7301</v>
+        <v>0.7312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7617</v>
+        <v>0.7824</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0316</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="42">
@@ -4403,17 +4466,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7699</v>
+        <v>0.7301</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7748</v>
+        <v>0.7617</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0049</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="43">
@@ -4424,17 +4487,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7448</v>
+        <v>0.7699</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7682</v>
+        <v>0.7748</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0234</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="44">
@@ -4445,17 +4508,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8041</v>
+        <v>0.7448</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8036</v>
+        <v>0.7682</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0005</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="45">
@@ -4466,17 +4529,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7459</v>
+        <v>0.8041</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7622</v>
+        <v>0.8036</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0163</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="46">
@@ -4487,17 +4550,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.7677</v>
+        <v>0.7459</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7715</v>
+        <v>0.7622</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0038</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="47">
@@ -4508,17 +4571,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5316</v>
+        <v>0.7677</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7323</v>
+        <v>0.7715</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2007</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="48">
@@ -4529,16 +4592,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5316</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7323</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2007</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.7138</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.7688</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.055</v>
       </c>
     </row>
@@ -4553,7 +4637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4974,17 +5058,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8046</v>
+        <v>0.6466</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8042</v>
+        <v>0.7315</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0004</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="21">
@@ -4995,17 +5079,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6231</v>
+        <v>0.8046</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6958</v>
+        <v>0.8042</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0727</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="22">
@@ -5016,17 +5100,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5777</v>
+        <v>0.6231</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7093</v>
+        <v>0.6958</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1316</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="23">
@@ -5037,17 +5121,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2574</v>
+        <v>0.5777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2599</v>
+        <v>0.7093</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0025</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="24">
@@ -5058,38 +5142,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.256</v>
+        <v>0.2574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2563</v>
+        <v>0.2599</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0003</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6776</v>
+        <v>0.256</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7201</v>
+        <v>0.2563</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0425</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="26">
@@ -5100,17 +5184,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7225</v>
+        <v>0.6776</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7225</v>
+        <v>0.7201</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="27">
@@ -5121,17 +5205,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6924</v>
+        <v>0.7225</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7255</v>
+        <v>0.7225</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0331</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -5142,17 +5226,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8293</v>
+        <v>0.6924</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8293</v>
+        <v>0.7255</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="29">
@@ -5163,17 +5247,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7297</v>
+        <v>0.8293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7552</v>
+        <v>0.8293</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5184,17 +5268,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6752</v>
+        <v>0.7297</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7255</v>
+        <v>0.7552</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0503</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="31">
@@ -5205,17 +5289,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2563</v>
+        <v>0.6752</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2579</v>
+        <v>0.7255</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0016</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="32">
@@ -5226,38 +5310,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2578</v>
+        <v>0.2563</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2622</v>
+        <v>0.2579</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0044</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6389</v>
+        <v>0.2578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6879</v>
+        <v>0.2622</v>
       </c>
       <c r="E33" t="n">
-        <v>0.049</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="34">
@@ -5268,17 +5352,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6445</v>
+        <v>0.6389</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6943</v>
+        <v>0.6879</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0498</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="35">
@@ -5289,17 +5373,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6445</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6635</v>
+        <v>0.6943</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0592</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="36">
@@ -5310,17 +5394,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.7897999999999999</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7892</v>
+        <v>0.6635</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="37">
@@ -5331,17 +5415,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6405</v>
+        <v>0.7897999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6957</v>
+        <v>0.7892</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0552</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5352,17 +5436,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6548</v>
+        <v>0.6405</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7023</v>
+        <v>0.6957</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0475</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="39">
@@ -5373,17 +5457,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3114</v>
+        <v>0.6548</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6729000000000001</v>
+        <v>0.7023</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3615</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="40">
@@ -5394,38 +5478,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5078</v>
+        <v>0.3114</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6833</v>
+        <v>0.6729000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1755</v>
+        <v>0.3615</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6526999999999999</v>
+        <v>0.5078</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7006</v>
+        <v>0.6833</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0479</v>
+        <v>0.1755</v>
       </c>
     </row>
     <row r="42">
@@ -5436,17 +5520,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6528</v>
+        <v>0.6526999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6906</v>
+        <v>0.7006</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0378</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="43">
@@ -5457,17 +5541,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6102</v>
+        <v>0.6528</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6652</v>
+        <v>0.6906</v>
       </c>
       <c r="E43" t="n">
-        <v>0.055</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="44">
@@ -5478,17 +5562,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.6102</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8046</v>
+        <v>0.6652</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0003</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="45">
@@ -5499,17 +5583,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6851</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7113</v>
+        <v>0.8046</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0262</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="46">
@@ -5520,17 +5604,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6886</v>
+        <v>0.6851</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7138</v>
+        <v>0.7113</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0252</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="47">
@@ -5541,17 +5625,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2875</v>
+        <v>0.6886</v>
       </c>
       <c r="D47" t="n">
-        <v>0.628</v>
+        <v>0.7138</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3405</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="48">
@@ -5562,16 +5646,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3405</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.5016</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.6808</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.1792</v>
       </c>
     </row>
@@ -5586,7 +5691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6007,17 +6112,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.738</v>
+        <v>0.6843</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7372</v>
+        <v>0.7111</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0008</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="21">
@@ -6028,17 +6133,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6401</v>
+        <v>0.738</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6622</v>
+        <v>0.7372</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0221</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="22">
@@ -6049,17 +6154,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.588</v>
+        <v>0.6401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6622</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0284</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="23">
@@ -6070,17 +6175,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5193</v>
+        <v>0.588</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4886</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0307</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="24">
@@ -6091,38 +6196,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4925</v>
+        <v>0.5193</v>
       </c>
       <c r="D24" t="n">
-        <v>0.502</v>
+        <v>0.4886</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0095</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6188</v>
+        <v>0.4925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6433</v>
+        <v>0.502</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0245</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="26">
@@ -6133,17 +6238,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7111</v>
+        <v>0.6188</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7103</v>
+        <v>0.6433</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0008</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="27">
@@ -6154,17 +6259,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6859</v>
+        <v>0.7111</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7088</v>
+        <v>0.7103</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0229</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="28">
@@ -6175,17 +6280,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7419</v>
+        <v>0.6859</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7419</v>
+        <v>0.7088</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="29">
@@ -6196,17 +6301,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6077</v>
+        <v>0.7419</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6622</v>
+        <v>0.7419</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6217,17 +6322,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.603</v>
+        <v>0.6077</v>
       </c>
       <c r="D30" t="n">
-        <v>0.614</v>
+        <v>0.6622</v>
       </c>
       <c r="E30" t="n">
-        <v>0.011</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="31">
@@ -6238,17 +6343,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4901</v>
+        <v>0.603</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4909</v>
+        <v>0.614</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0008</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="32">
@@ -6259,38 +6364,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4893</v>
+        <v>0.4901</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4799</v>
+        <v>0.4909</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0094</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5699</v>
+        <v>0.4893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.4799</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0173</v>
+        <v>-0.0094</v>
       </c>
     </row>
     <row r="34">
@@ -6301,17 +6406,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5541</v>
+        <v>0.5699</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5864</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0323</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="35">
@@ -6322,17 +6427,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5406</v>
+        <v>0.5541</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5833</v>
+        <v>0.5864</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0427</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="36">
@@ -6343,17 +6448,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.7285</v>
+        <v>0.5406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7285</v>
+        <v>0.5833</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="37">
@@ -6364,17 +6469,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.7285</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6748</v>
+        <v>0.7285</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0039</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38">
@@ -6385,17 +6490,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6251</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6377</v>
+        <v>0.6748</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0126</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="39">
@@ -6406,17 +6511,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4878</v>
+        <v>0.6251</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5864</v>
+        <v>0.6377</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09859999999999999</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="40">
@@ -6427,38 +6532,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5328000000000001</v>
+        <v>0.4878</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6109</v>
+        <v>0.5864</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0781</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5777</v>
+        <v>0.5328000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6101</v>
+        <v>0.6109</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0324</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="42">
@@ -6469,17 +6574,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5556</v>
+        <v>0.5777</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6109</v>
+        <v>0.6101</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0553</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="43">
@@ -6490,17 +6595,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5414</v>
+        <v>0.5556</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5911999999999999</v>
+        <v>0.6109</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0498</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="44">
@@ -6511,17 +6616,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.7064</v>
+        <v>0.5414</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7064</v>
+        <v>0.5911999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="45">
@@ -6532,17 +6637,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6322</v>
+        <v>0.7064</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6693</v>
+        <v>0.7064</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0371</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46">
@@ -6553,17 +6658,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.6322</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6101</v>
+        <v>0.6693</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0158</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="47">
@@ -6574,17 +6679,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5162</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5714</v>
+        <v>0.6101</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0552</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="48">
@@ -6595,16 +6700,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5162</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0552</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.5328000000000001</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.6117</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.0789</v>
       </c>
     </row>
@@ -6619,7 +6745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7040,17 +7166,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.782</v>
+        <v>0.588</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7824</v>
+        <v>0.7109</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0004</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="21">
@@ -7061,17 +7187,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6002</v>
+        <v>0.782</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6671</v>
+        <v>0.7824</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0669</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="22">
@@ -7082,17 +7208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4891</v>
+        <v>0.6002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6591</v>
+        <v>0.6671</v>
       </c>
       <c r="E22" t="n">
-        <v>0.17</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="23">
@@ -7103,17 +7229,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.263</v>
+        <v>0.4891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2997</v>
+        <v>0.6591</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0367</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24">
@@ -7124,38 +7250,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2525</v>
+        <v>0.263</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2643</v>
+        <v>0.2997</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0118</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.662</v>
+        <v>0.2525</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6965</v>
+        <v>0.2643</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0345</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="26">
@@ -7166,17 +7292,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6843</v>
+        <v>0.662</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6848</v>
+        <v>0.6965</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="27">
@@ -7187,17 +7313,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6309</v>
+        <v>0.6843</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6957</v>
+        <v>0.6848</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0648</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="28">
@@ -7208,17 +7334,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8262</v>
+        <v>0.6309</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8262</v>
+        <v>0.6957</v>
       </c>
       <c r="E28" t="n">
-        <v>-0</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="29">
@@ -7229,17 +7355,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7534</v>
+        <v>0.8262</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7269</v>
+        <v>0.8262</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0265</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
@@ -7250,17 +7376,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6953</v>
+        <v>0.7534</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7201</v>
+        <v>0.7269</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0248</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="31">
@@ -7271,17 +7397,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2685</v>
+        <v>0.6953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3102</v>
+        <v>0.7201</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0417</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="32">
@@ -7292,38 +7418,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2601</v>
+        <v>0.2685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2529</v>
+        <v>0.3102</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0072</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6216</v>
+        <v>0.2601</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6646</v>
+        <v>0.2529</v>
       </c>
       <c r="E33" t="n">
-        <v>0.043</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="34">
@@ -7334,17 +7460,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6503</v>
+        <v>0.6216</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.6646</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="35">
@@ -7355,17 +7481,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6246</v>
+        <v>0.6503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6902</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -7376,17 +7502,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.774</v>
+        <v>0.6246</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7731</v>
+        <v>0.6902</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0009</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -7397,17 +7523,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.6503</v>
+        <v>0.774</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7281</v>
+        <v>0.7731</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07779999999999999</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="38">
@@ -7418,17 +7544,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5926</v>
+        <v>0.6503</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6932</v>
+        <v>0.7281</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1006</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -7439,17 +7565,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3497</v>
+        <v>0.5926</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6932</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2677</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="40">
@@ -7460,38 +7586,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5657</v>
+        <v>0.3497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.67</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1043</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5749</v>
+        <v>0.5657</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6801</v>
+        <v>0.67</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1052</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="42">
@@ -7502,17 +7628,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6827</v>
+        <v>0.5749</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7184</v>
+        <v>0.6801</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0357</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="43">
@@ -7523,17 +7649,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6368</v>
+        <v>0.6827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6949</v>
+        <v>0.7184</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0581</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="44">
@@ -7544,17 +7670,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8102</v>
+        <v>0.6368</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8089</v>
+        <v>0.6949</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0013</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="45">
@@ -7565,17 +7691,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6721</v>
+        <v>0.8102</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7079</v>
+        <v>0.8089</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0358</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="46">
@@ -7586,17 +7712,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6886</v>
+        <v>0.6721</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7016</v>
+        <v>0.7079</v>
       </c>
       <c r="E46" t="n">
-        <v>0.013</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="47">
@@ -7607,17 +7733,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.3102</v>
+        <v>0.6886</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6284</v>
+        <v>0.7016</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3182</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="48">
@@ -7628,16 +7754,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3102</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6284</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3182</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.5636</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.6742</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.1106</v>
       </c>
     </row>
@@ -7652,7 +7799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8073,17 +8220,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5222</v>
+        <v>0.3916</v>
       </c>
       <c r="D20" t="n">
-        <v>0.523</v>
+        <v>0.4514</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0008</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="21">
@@ -8094,17 +8241,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3848</v>
+        <v>0.5222</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4317</v>
+        <v>0.523</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0469</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="22">
@@ -8115,17 +8262,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3003</v>
+        <v>0.3848</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3942</v>
+        <v>0.4317</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0939</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="23">
@@ -8136,17 +8283,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2671</v>
+        <v>0.3003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2747</v>
+        <v>0.3942</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0076</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="24">
@@ -8157,38 +8304,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.279</v>
+        <v>0.2671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2679</v>
+        <v>0.2747</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0111</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4087</v>
+        <v>0.279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4266</v>
+        <v>0.2679</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0179</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="26">
@@ -8199,17 +8346,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5009</v>
+        <v>0.4087</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5026</v>
+        <v>0.4266</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0017</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="27">
@@ -8220,17 +8367,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4608</v>
+        <v>0.5009</v>
       </c>
       <c r="D27" t="n">
-        <v>0.465</v>
+        <v>0.5026</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0042</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="28">
@@ -8241,17 +8388,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5887</v>
+        <v>0.4608</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5887</v>
+        <v>0.465</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="29">
@@ -8262,17 +8409,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5094</v>
+        <v>0.5887</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4804</v>
+        <v>0.5887</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8283,17 +8430,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4258</v>
+        <v>0.5094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4497</v>
+        <v>0.4804</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0239</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="31">
@@ -8304,17 +8451,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2799</v>
+        <v>0.4258</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2679</v>
+        <v>0.4497</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.012</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="32">
@@ -8325,38 +8472,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2765</v>
+        <v>0.2799</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2884</v>
+        <v>0.2679</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0119</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3328</v>
+        <v>0.2765</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3985</v>
+        <v>0.2884</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="34">
@@ -8367,17 +8514,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.378</v>
+        <v>0.3328</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4701</v>
+        <v>0.3985</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0921</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -8388,17 +8535,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3498</v>
+        <v>0.378</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4462</v>
+        <v>0.4701</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0964</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="36">
@@ -8409,17 +8556,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5102</v>
+        <v>0.3498</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5102</v>
+        <v>0.4462</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="37">
@@ -8430,17 +8577,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.407</v>
+        <v>0.5102</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4787</v>
+        <v>0.5102</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8451,17 +8598,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3933</v>
+        <v>0.407</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4556</v>
+        <v>0.4787</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0623</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="39">
@@ -8472,17 +8619,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2696</v>
+        <v>0.3933</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4531</v>
+        <v>0.4556</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1835</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="40">
@@ -8493,38 +8640,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3089</v>
+        <v>0.2696</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4155</v>
+        <v>0.4531</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1066</v>
+        <v>0.1835</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3626</v>
+        <v>0.3089</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4224</v>
+        <v>0.4155</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0598</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="42">
@@ -8535,17 +8682,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4053</v>
+        <v>0.3626</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4667</v>
+        <v>0.4224</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0614</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="43">
@@ -8556,17 +8703,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.3635</v>
+        <v>0.4053</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4539</v>
+        <v>0.4667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="44">
@@ -8577,17 +8724,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5495</v>
+        <v>0.3635</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5503</v>
+        <v>0.4539</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0008</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -8598,17 +8745,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4198</v>
+        <v>0.5495</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4744</v>
+        <v>0.5503</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0546</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="46">
@@ -8619,17 +8766,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4565</v>
+        <v>0.4198</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4514</v>
+        <v>0.4744</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0051</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="47">
@@ -8640,17 +8787,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2645</v>
+        <v>0.4565</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4343</v>
+        <v>0.4514</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1698</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="48">
@@ -8661,16 +8808,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4343</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1698</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.337</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.4377</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.1007</v>
       </c>
     </row>
@@ -8685,7 +8853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9106,17 +9274,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.442</v>
+        <v>0.316</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442</v>
+        <v>0.38</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="21">
@@ -9127,17 +9295,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.372</v>
+        <v>0.442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.38</v>
+        <v>0.442</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9148,17 +9316,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.366</v>
+        <v>0.372</v>
       </c>
       <c r="D22" t="n">
-        <v>0.402</v>
+        <v>0.38</v>
       </c>
       <c r="E22" t="n">
-        <v>0.036</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="23">
@@ -9169,17 +9337,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.258</v>
+        <v>0.366</v>
       </c>
       <c r="D23" t="n">
-        <v>0.254</v>
+        <v>0.402</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.004</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="24">
@@ -9190,38 +9358,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.282</v>
+        <v>0.258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.02</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mistral-Instruct</t>
+          <t>Mistral</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.38</v>
+        <v>0.282</v>
       </c>
       <c r="D25" t="n">
-        <v>0.398</v>
+        <v>0.262</v>
       </c>
       <c r="E25" t="n">
-        <v>0.018</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26">
@@ -9232,17 +9400,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="D26" t="n">
-        <v>0.382</v>
+        <v>0.398</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="27">
@@ -9253,17 +9421,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.356</v>
+        <v>0.382</v>
       </c>
       <c r="D27" t="n">
-        <v>0.39</v>
+        <v>0.382</v>
       </c>
       <c r="E27" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9274,17 +9442,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.474</v>
+        <v>0.356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.472</v>
+        <v>0.39</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.002</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="29">
@@ -9295,17 +9463,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.436</v>
+        <v>0.474</v>
       </c>
       <c r="D29" t="n">
-        <v>0.422</v>
+        <v>0.472</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.014</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="30">
@@ -9316,17 +9484,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.41</v>
+        <v>0.436</v>
       </c>
       <c r="D30" t="n">
-        <v>0.41</v>
+        <v>0.422</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="31">
@@ -9337,17 +9505,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.244</v>
+        <v>0.41</v>
       </c>
       <c r="D31" t="n">
-        <v>0.266</v>
+        <v>0.41</v>
       </c>
       <c r="E31" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -9358,38 +9526,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.256</v>
+        <v>0.244</v>
       </c>
       <c r="D32" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Qwen</t>
+          <t>Mistral-Instruct</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.376</v>
+        <v>0.256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.404</v>
+        <v>0.264</v>
       </c>
       <c r="E33" t="n">
-        <v>0.028</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="34">
@@ -9400,17 +9568,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.406</v>
+        <v>0.376</v>
       </c>
       <c r="D34" t="n">
-        <v>0.406</v>
+        <v>0.404</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="35">
@@ -9421,17 +9589,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.374</v>
+        <v>0.406</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408</v>
+        <v>0.406</v>
       </c>
       <c r="E35" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9442,17 +9610,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.472</v>
+        <v>0.374</v>
       </c>
       <c r="D36" t="n">
-        <v>0.47</v>
+        <v>0.408</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.002</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="37">
@@ -9463,17 +9631,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.354</v>
+        <v>0.472</v>
       </c>
       <c r="D37" t="n">
-        <v>0.398</v>
+        <v>0.47</v>
       </c>
       <c r="E37" t="n">
-        <v>0.044</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="38">
@@ -9484,17 +9652,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.364</v>
+        <v>0.354</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="E38" t="n">
-        <v>0.036</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="39">
@@ -9505,17 +9673,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.292</v>
+        <v>0.364</v>
       </c>
       <c r="D39" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.098</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="40">
@@ -9526,38 +9694,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.372</v>
+        <v>0.292</v>
       </c>
       <c r="D40" t="n">
-        <v>0.416</v>
+        <v>0.39</v>
       </c>
       <c r="E40" t="n">
-        <v>0.044</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Qwen-Instruct</t>
+          <t>Qwen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LLMPruner</t>
+          <t>wanda</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.36</v>
+        <v>0.372</v>
       </c>
       <c r="D41" t="n">
-        <v>0.396</v>
+        <v>0.416</v>
       </c>
       <c r="E41" t="n">
-        <v>0.036</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="42">
@@ -9568,17 +9736,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_6</t>
+          <t>LLMPruner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.412</v>
+        <v>0.36</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422</v>
+        <v>0.396</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="43">
@@ -9589,17 +9757,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ShortGPT_remove_7</t>
+          <t>ShortGPT_remove_6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.382</v>
+        <v>0.412</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418</v>
+        <v>0.422</v>
       </c>
       <c r="E43" t="n">
-        <v>0.036</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44">
@@ -9610,17 +9778,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.48</v>
+        <v>0.382</v>
       </c>
       <c r="D44" t="n">
-        <v>0.484</v>
+        <v>0.418</v>
       </c>
       <c r="E44" t="n">
-        <v>0.004</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="45">
@@ -9631,17 +9799,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.416</v>
+        <v>0.48</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422</v>
+        <v>0.484</v>
       </c>
       <c r="E45" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="46">
@@ -9652,17 +9820,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.398</v>
+        <v>0.416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426</v>
+        <v>0.422</v>
       </c>
       <c r="E46" t="n">
-        <v>0.028</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="47">
@@ -9673,17 +9841,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.296</v>
+        <v>0.398</v>
       </c>
       <c r="D47" t="n">
-        <v>0.386</v>
+        <v>0.426</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="48">
@@ -9694,16 +9862,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Qwen-Instruct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>0.37</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>0.426</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E49" t="n">
         <v>0.056</v>
       </c>
     </row>

--- a/outputs/per_model_excel/ALL_MODELS_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/ALL_MODELS_finetuning_summary.xlsx
@@ -562,28 +562,28 @@
         <v>58.27</v>
       </c>
       <c r="E3" t="n">
-        <v>58.27</v>
+        <v>11.39</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01</v>
+        <v>-80.45</v>
       </c>
       <c r="G3" t="n">
         <v>68.88</v>
       </c>
       <c r="H3" t="n">
-        <v>68.89</v>
+        <v>15.33</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>-77.73999999999999</v>
       </c>
       <c r="J3" t="n">
         <v>0.5768</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5774</v>
+        <v>0.66</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         <v>17696.4</v>
       </c>
       <c r="E9" t="n">
-        <v>17696.27</v>
+        <v>18757.03</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>5.99</v>
       </c>
       <c r="G9" t="n">
         <v>11561.43</v>
       </c>
       <c r="H9" t="n">
-        <v>11560.73</v>
+        <v>12353.81</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01</v>
+        <v>6.85</v>
       </c>
       <c r="J9" t="n">
         <v>0.3594</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3602</v>
+        <v>0.3541</v>
       </c>
       <c r="L9" t="n">
-        <v>0.21</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="10">
@@ -898,28 +898,28 @@
         <v>89.91</v>
       </c>
       <c r="E11" t="n">
-        <v>89.90000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01</v>
+        <v>-85.34</v>
       </c>
       <c r="G11" t="n">
         <v>129.89</v>
       </c>
       <c r="H11" t="n">
-        <v>129.89</v>
+        <v>17.33</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>-86.66</v>
       </c>
       <c r="J11" t="n">
         <v>0.5744</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5746</v>
+        <v>0.6446</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="12">
@@ -1150,28 +1150,28 @@
         <v>12573.88</v>
       </c>
       <c r="E17" t="n">
-        <v>12573.76</v>
+        <v>24719.39</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>96.59</v>
       </c>
       <c r="G17" t="n">
         <v>9723.690000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>9724.01</v>
+        <v>21023.27</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>116.21</v>
       </c>
       <c r="J17" t="n">
         <v>0.3573</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3568</v>
+        <v>0.3605</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.14</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
@@ -1360,28 +1360,28 @@
         <v>15.22</v>
       </c>
       <c r="E22" t="n">
-        <v>10.46</v>
+        <v>10.03</v>
       </c>
       <c r="F22" t="n">
-        <v>-31.27</v>
+        <v>-34.09</v>
       </c>
       <c r="G22" t="n">
         <v>38.08</v>
       </c>
       <c r="H22" t="n">
-        <v>27.87</v>
+        <v>29.19</v>
       </c>
       <c r="I22" t="n">
-        <v>-26.82</v>
+        <v>-23.35</v>
       </c>
       <c r="J22" t="n">
         <v>0.5861</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6246</v>
+        <v>0.6202</v>
       </c>
       <c r="L22" t="n">
-        <v>6.57</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="23">
@@ -1402,28 +1402,28 @@
         <v>9.69</v>
       </c>
       <c r="E23" t="n">
-        <v>7.68</v>
+        <v>7.7</v>
       </c>
       <c r="F23" t="n">
-        <v>-20.78</v>
+        <v>-20.49</v>
       </c>
       <c r="G23" t="n">
         <v>56.45</v>
       </c>
       <c r="H23" t="n">
-        <v>47.14</v>
+        <v>48.81</v>
       </c>
       <c r="I23" t="n">
-        <v>-16.5</v>
+        <v>-13.53</v>
       </c>
       <c r="J23" t="n">
         <v>0.5332</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6105</v>
+        <v>0.612</v>
       </c>
       <c r="L23" t="n">
-        <v>14.5</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="24">
@@ -1486,28 +1486,28 @@
         <v>36867.94</v>
       </c>
       <c r="E25" t="n">
-        <v>19367.2</v>
+        <v>28029.87</v>
       </c>
       <c r="F25" t="n">
-        <v>-47.47</v>
+        <v>-23.97</v>
       </c>
       <c r="G25" t="n">
         <v>34584.62</v>
       </c>
       <c r="H25" t="n">
-        <v>29539.36</v>
+        <v>33579.21</v>
       </c>
       <c r="I25" t="n">
-        <v>-14.59</v>
+        <v>-2.91</v>
       </c>
       <c r="J25" t="n">
         <v>0.3517</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3708</v>
+        <v>0.3717</v>
       </c>
       <c r="L25" t="n">
-        <v>5.44</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="26">
@@ -1570,28 +1570,28 @@
         <v>12.68</v>
       </c>
       <c r="E27" t="n">
-        <v>12.68</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.04</v>
+        <v>-29.27</v>
       </c>
       <c r="G27" t="n">
         <v>35.41</v>
       </c>
       <c r="H27" t="n">
-        <v>35.41</v>
+        <v>28.31</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01</v>
+        <v>-20.06</v>
       </c>
       <c r="J27" t="n">
         <v>0.6543</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6545</v>
+        <v>0.6647999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="28">
@@ -1822,28 +1822,28 @@
         <v>9645.84</v>
       </c>
       <c r="E33" t="n">
-        <v>14450.9</v>
+        <v>16783.88</v>
       </c>
       <c r="F33" t="n">
-        <v>49.81</v>
+        <v>74</v>
       </c>
       <c r="G33" t="n">
         <v>9803.66</v>
       </c>
       <c r="H33" t="n">
-        <v>15684.8</v>
+        <v>17938.98</v>
       </c>
       <c r="I33" t="n">
-        <v>59.99</v>
+        <v>82.98</v>
       </c>
       <c r="J33" t="n">
         <v>0.3483</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3515</v>
+        <v>0.347</v>
       </c>
       <c r="L33" t="n">
-        <v>0.92</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="34">
@@ -2600,10 +2600,10 @@
         <v>0.6508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6514</v>
+        <v>0.8028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="4">
@@ -2726,10 +2726,10 @@
         <v>0.4437</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4437</v>
+        <v>0.3813</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="10">
@@ -2768,10 +2768,10 @@
         <v>0.6364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6364</v>
+        <v>0.7927</v>
       </c>
       <c r="E11" t="n">
-        <v>-0</v>
+        <v>0.1563</v>
       </c>
     </row>
     <row r="12">
@@ -2894,10 +2894,10 @@
         <v>0.4511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4505</v>
+        <v>0.4385</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="18">
@@ -2999,10 +2999,10 @@
         <v>0.7642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7994</v>
+        <v>0.7664</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0352</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="23">
@@ -3062,10 +3062,10 @@
         <v>0.4098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5346</v>
+        <v>0.5205</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1248</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="26">
@@ -3104,10 +3104,10 @@
         <v>0.8498</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8495</v>
+        <v>0.8596</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0003</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="28">
@@ -3230,10 +3230,10 @@
         <v>0.4046</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4257</v>
+        <v>0.4177</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0211</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="34">
@@ -3654,10 +3654,10 @@
         <v>0.7089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7095</v>
+        <v>0.7661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="4">
@@ -3780,10 +3780,10 @@
         <v>0.506</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5049</v>
+        <v>0.518</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0011</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10">
@@ -3822,10 +3822,10 @@
         <v>0.6991000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.7361</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="12">
@@ -3948,10 +3948,10 @@
         <v>0.5087</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5098</v>
+        <v>0.5147</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0011</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="18">
@@ -4053,10 +4053,10 @@
         <v>0.7181999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7361</v>
+        <v>0.7432</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0179</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="23">
@@ -4074,10 +4074,10 @@
         <v>0.7612</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7905</v>
+        <v>0.7954</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0293</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="24">
@@ -4116,10 +4116,10 @@
         <v>0.4902</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5087</v>
+        <v>0.4946</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0185</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="26">
@@ -4158,10 +4158,10 @@
         <v>0.7296</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7301</v>
+        <v>0.7568</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0005</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="28">
@@ -4284,10 +4284,10 @@
         <v>0.4935</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4875</v>
+        <v>0.4924</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.006</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="34">
@@ -4708,10 +4708,10 @@
         <v>0.6472</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6469</v>
+        <v>0.7204</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0003</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="4">
@@ -4834,10 +4834,10 @@
         <v>0.2603</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2602</v>
+        <v>0.2629</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0001</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="10">
@@ -4876,10 +4876,10 @@
         <v>0.6199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6201</v>
+        <v>0.7076</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="12">
@@ -5002,10 +5002,10 @@
         <v>0.2579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2579</v>
+        <v>0.2607</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="18">
@@ -5107,10 +5107,10 @@
         <v>0.6231</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6958</v>
+        <v>0.694</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0727</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="23">
@@ -5128,10 +5128,10 @@
         <v>0.5777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7093</v>
+        <v>0.7091</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1316</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="24">
@@ -5170,10 +5170,10 @@
         <v>0.256</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2563</v>
+        <v>0.2646</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0003</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="26">
@@ -5212,10 +5212,10 @@
         <v>0.7225</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7225</v>
+        <v>0.7442</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="28">
@@ -5338,10 +5338,10 @@
         <v>0.2578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2622</v>
+        <v>0.2632</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0044</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="34">
@@ -5762,10 +5762,10 @@
         <v>0.7103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7111</v>
+        <v>0.7103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +5888,10 @@
         <v>0.4775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4846</v>
+        <v>0.4996</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0071</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="10">
@@ -5930,10 +5930,10 @@
         <v>0.6756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.678</v>
+        <v>0.7072000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0024</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="12">
@@ -6056,10 +6056,10 @@
         <v>0.4838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4815</v>
+        <v>0.5193</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0023</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="18">
@@ -6161,10 +6161,10 @@
         <v>0.6401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6622</v>
+        <v>0.6582</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0221</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="23">
@@ -6182,10 +6182,10 @@
         <v>0.588</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6196</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0284</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="24">
@@ -6224,10 +6224,10 @@
         <v>0.4925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.502</v>
+        <v>0.4957</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0095</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="26">
@@ -6266,10 +6266,10 @@
         <v>0.7111</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7103</v>
+        <v>0.7088</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0008</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="28">
@@ -6392,10 +6392,10 @@
         <v>0.4893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4799</v>
+        <v>0.4783</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0094</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="34">
@@ -6816,10 +6816,10 @@
         <v>0.5661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5669</v>
+        <v>0.7264</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="4">
@@ -6942,10 +6942,10 @@
         <v>0.2584</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2588</v>
+        <v>0.271</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="10">
@@ -6984,10 +6984,10 @@
         <v>0.6014</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5997</v>
+        <v>0.7104</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0017</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="12">
@@ -7110,10 +7110,10 @@
         <v>0.2517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2513</v>
+        <v>0.2609</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0004</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="18">
@@ -7215,10 +7215,10 @@
         <v>0.6002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6671</v>
+        <v>0.6545</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0669</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="23">
@@ -7236,10 +7236,10 @@
         <v>0.4891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6591</v>
+        <v>0.6612</v>
       </c>
       <c r="E23" t="n">
-        <v>0.17</v>
+        <v>0.1721</v>
       </c>
     </row>
     <row r="24">
@@ -7278,10 +7278,10 @@
         <v>0.2525</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2643</v>
+        <v>0.2605</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0118</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="26">
@@ -7320,10 +7320,10 @@
         <v>0.6843</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6848</v>
+        <v>0.7033</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0005</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="28">
@@ -7446,10 +7446,10 @@
         <v>0.2601</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2529</v>
+        <v>0.2521</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0072</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="34">
@@ -7870,10 +7870,10 @@
         <v>0.4241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4241</v>
+        <v>0.4838</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="4">
@@ -7996,10 +7996,10 @@
         <v>0.2696</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2688</v>
+        <v>0.2577</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0008</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="10">
@@ -8038,10 +8038,10 @@
         <v>0.4445</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4445</v>
+        <v>0.4684</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="12">
@@ -8164,10 +8164,10 @@
         <v>0.2637</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2628</v>
+        <v>0.2474</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0009</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="18">
@@ -8269,10 +8269,10 @@
         <v>0.3848</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4317</v>
+        <v>0.4352</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0469</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="23">
@@ -8290,10 +8290,10 @@
         <v>0.3003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3942</v>
+        <v>0.3968</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0939</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="24">
@@ -8332,10 +8332,10 @@
         <v>0.279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2679</v>
+        <v>0.2978</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0111</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="26">
@@ -8374,10 +8374,10 @@
         <v>0.5009</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5026</v>
+        <v>0.471</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0017</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="28">
@@ -8500,10 +8500,10 @@
         <v>0.2765</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2884</v>
+        <v>0.2816</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0119</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="34">
@@ -8924,10 +8924,10 @@
         <v>0.33</v>
       </c>
       <c r="D3" t="n">
-        <v>0.332</v>
+        <v>0.41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -9050,10 +9050,10 @@
         <v>0.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>0.288</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="10">
@@ -9092,10 +9092,10 @@
         <v>0.344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.344</v>
+        <v>0.39</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="12">
@@ -9218,10 +9218,10 @@
         <v>0.284</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284</v>
+        <v>0.282</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="18">
@@ -9323,10 +9323,10 @@
         <v>0.372</v>
       </c>
       <c r="D22" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="23">
@@ -9344,10 +9344,10 @@
         <v>0.366</v>
       </c>
       <c r="D23" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="24">
@@ -9386,10 +9386,10 @@
         <v>0.282</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="26">
@@ -9428,10 +9428,10 @@
         <v>0.382</v>
       </c>
       <c r="D27" t="n">
-        <v>0.382</v>
+        <v>0.41</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="28">
@@ -9554,10 +9554,10 @@
         <v>0.256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264</v>
+        <v>0.244</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="34">
